--- a/kotoba-doc/Requirement.xlsx
+++ b/kotoba-doc/Requirement.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="253">
   <si>
     <t>Requirement</t>
   </si>
@@ -829,9 +829,6 @@
 {user_obj}</t>
   </si>
   <si>
-    <t>kotoba</t>
-  </si>
-  <si>
     <t>Not Null
 Min 1
 Max 45</t>
@@ -897,21 +894,24 @@
 Max 1</t>
   </si>
   <si>
-    <t>Ref: kotoba.id</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>PK
 FK</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>ktb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,6 +931,19 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1168,7 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1413,69 +1426,72 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1485,39 +1501,36 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1530,26 +1543,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1887,15 +1912,15 @@
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="81"/>
-      <c r="D3" s="84">
+      <c r="D3" s="82">
         <v>42864</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
@@ -1903,15 +1928,15 @@
       </c>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1946,14 +1971,14 @@
       <c r="B7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1965,13 +1990,13 @@
       <c r="C8" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1980,14 +2005,14 @@
       <c r="B9" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -2221,6 +2246,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -2231,19 +2269,6 @@
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="B9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -2262,7 +2287,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93:J93"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,121 +2302,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="str">
+      <c r="A1" s="90" t="str">
         <f>'Basic Design'!A1</f>
         <v>ProjectID</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="96" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="90" t="str">
         <f>'Basic Design'!D1</f>
         <v>kotoba-api</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="str">
+      <c r="A2" s="90" t="str">
         <f>'Basic Design'!A2</f>
         <v>Project Name</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="96" t="str">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="90" t="str">
         <f>'Basic Design'!D2</f>
         <v>Japan Kotoba</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="str">
+      <c r="A3" s="90" t="str">
         <f>'Basic Design'!A3</f>
         <v>Start Date</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="111">
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="110">
         <f>'Basic Design'!D3</f>
         <v>42864</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="str">
+      <c r="A4" s="90" t="str">
         <f>'Basic Design'!A4</f>
         <v>Owner</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="108" t="str">
+      <c r="B4" s="91"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="107" t="str">
         <f>'Basic Design'!D4</f>
         <v>KaungYeeHein@gmail.com</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="103" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="104"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
       <c r="J7" s="37" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="80"/>
-      <c r="C8" s="100" t="str">
+      <c r="C8" s="101" t="str">
         <f>C$6</f>
         <v>/kotaba</v>
       </c>
@@ -2399,23 +2424,23 @@
       <c r="E8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
       <c r="J8" s="28">
         <f>A37</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="80"/>
-      <c r="C9" s="100" t="str">
+      <c r="C9" s="101" t="str">
         <f>C$6</f>
         <v>/kotaba</v>
       </c>
@@ -2423,23 +2448,23 @@
       <c r="E9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="28">
         <f>A76</f>
         <v>2.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="101" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="80"/>
-      <c r="C10" s="100" t="str">
+      <c r="C10" s="101" t="str">
         <f>C$6</f>
         <v>/kotaba</v>
       </c>
@@ -2447,115 +2472,115 @@
       <c r="E10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
       <c r="J10" s="29">
         <f>A42</f>
         <v>3.1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="86" t="str">
+      <c r="B11" s="88"/>
+      <c r="C11" s="87" t="str">
         <f>C$6</f>
         <v>/kotaba</v>
       </c>
-      <c r="D11" s="87"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="73" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="86" t="str">
+      <c r="B12" s="88"/>
+      <c r="C12" s="87" t="str">
         <f>C$6</f>
         <v>/kotaba</v>
       </c>
-      <c r="D12" s="87"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="73" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="86" t="str">
+      <c r="B13" s="88"/>
+      <c r="C13" s="87" t="str">
         <f>C$6&amp;"/{id}"</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="D13" s="87"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
       <c r="J13" s="73" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="86" t="str">
+      <c r="B14" s="88"/>
+      <c r="C14" s="87" t="str">
         <f>C$6&amp;"/{id}"</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
       <c r="J14" s="73" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="101" t="s">
         <v>209</v>
       </c>
       <c r="B15" s="80"/>
-      <c r="C15" s="100" t="str">
+      <c r="C15" s="101" t="str">
         <f>C$6&amp;"/{id}"</f>
         <v>/kotaba/{id}</v>
       </c>
@@ -2563,23 +2588,23 @@
       <c r="E15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="102" t="s">
+      <c r="F15" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
       <c r="J15" s="29">
         <f>A46</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="101" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="80"/>
-      <c r="C16" s="100" t="str">
+      <c r="C16" s="101" t="str">
         <f>C$6&amp;"/{id}"</f>
         <v>/kotaba/{id}</v>
       </c>
@@ -2587,12 +2612,12 @@
       <c r="E16" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="89" t="s">
+      <c r="F16" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
       <c r="J16" s="29">
         <f>A51</f>
         <v>3.3</v>
@@ -2602,49 +2627,49 @@
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="103" t="s">
+      <c r="B19" s="105"/>
+      <c r="C19" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="104"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
       <c r="J19" s="37" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="80"/>
-      <c r="C20" s="100" t="str">
+      <c r="C20" s="101" t="str">
         <f>C$18</f>
         <v>/user</v>
       </c>
@@ -2652,23 +2677,23 @@
       <c r="E20" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="102" t="s">
+      <c r="F20" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
       <c r="J20" s="28">
         <f>A66</f>
         <v>4.3</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="101" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="80"/>
-      <c r="C21" s="100" t="str">
+      <c r="C21" s="101" t="str">
         <f>C$18</f>
         <v>/user</v>
       </c>
@@ -2676,59 +2701,59 @@
       <c r="E21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
       <c r="J21" s="29">
         <f>A58</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="86" t="str">
+      <c r="B22" s="88"/>
+      <c r="C22" s="87" t="str">
         <f>C$18</f>
         <v>/user</v>
       </c>
-      <c r="D22" s="87"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
       <c r="J22" s="73" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="86" t="str">
+      <c r="B23" s="88"/>
+      <c r="C23" s="87" t="str">
         <f>C$18</f>
         <v>/user</v>
       </c>
-      <c r="D23" s="87"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="F23" s="88" t="s">
+      <c r="F23" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
       <c r="J23" s="73" t="s">
         <v>210</v>
       </c>
@@ -2737,78 +2762,78 @@
       <c r="A24" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="83"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="78" t="str">
         <f>C$18&amp;"/{id}"</f>
         <v>/user/{id}</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
       <c r="J24" s="75">
         <f>A62</f>
         <v>4.2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="86" t="str">
+      <c r="B25" s="88"/>
+      <c r="C25" s="87" t="str">
         <f>C$18&amp;"/{id}"</f>
         <v>/user/{id}</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="F25" s="88" t="s">
+      <c r="F25" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
       <c r="J25" s="73" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="86" t="str">
+      <c r="B26" s="88"/>
+      <c r="C26" s="87" t="str">
         <f>C$18&amp;"/{id}"</f>
         <v>/user/{id}</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="88" t="s">
+      <c r="F26" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
       <c r="J26" s="73" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="101" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="80"/>
-      <c r="C27" s="100" t="str">
+      <c r="C27" s="101" t="str">
         <f>C$18&amp;"/{id}"</f>
         <v>/user/{id}</v>
       </c>
@@ -2816,61 +2841,61 @@
       <c r="E27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="102" t="s">
+      <c r="F27" s="100" t="s">
         <v>224</v>
       </c>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
       <c r="J27" s="28">
         <f>A69</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89" t="s">
+      <c r="B29" s="99"/>
+      <c r="C29" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="103" t="s">
+      <c r="B30" s="105"/>
+      <c r="C30" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="104"/>
+      <c r="D30" s="105"/>
       <c r="E30" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="105" t="s">
+      <c r="F30" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
       <c r="J30" s="37" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="80"/>
-      <c r="C31" s="100" t="str">
+      <c r="C31" s="101" t="str">
         <f>C$29&amp;"/version"</f>
         <v>/sys/version</v>
       </c>
@@ -2878,23 +2903,23 @@
       <c r="E31" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="89" t="s">
+      <c r="F31" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
       <c r="J31" s="29">
         <f>A79</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="80"/>
-      <c r="C32" s="100" t="str">
+      <c r="C32" s="101" t="str">
         <f>C$29&amp;"/dataset"</f>
         <v>/sys/dataset</v>
       </c>
@@ -2902,23 +2927,23 @@
       <c r="E32" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="89" t="s">
+      <c r="F32" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
       <c r="J32" s="29">
         <f>A83</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="100" t="s">
+      <c r="A33" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="80"/>
-      <c r="C33" s="100" t="str">
+      <c r="C33" s="101" t="str">
         <f>C$29&amp;"/publish"</f>
         <v>/sys/publish</v>
       </c>
@@ -2926,10 +2951,10 @@
       <c r="E33" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
       <c r="J33" s="29">
         <f>A88</f>
         <v>3.4</v>
@@ -2948,60 +2973,60 @@
       <c r="J34" s="71"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="107"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="85"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f>'Basic Design'!A7</f>
         <v>1</v>
       </c>
-      <c r="B36" s="96" t="str">
+      <c r="B36" s="90" t="str">
         <f>'Basic Design'!B7</f>
         <v>Everyone can request both Myanmar, Japanese and English language one by one.</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="98"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="92"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="90">
+      <c r="A37" s="93">
         <f>'Basic Design'!A8</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="96" t="str">
+      <c r="B37" s="94"/>
+      <c r="C37" s="90" t="str">
         <f>'Basic Design'!C8</f>
         <v>Request with Myanmar (unicode) or Japanese or English words</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="98"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="92"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
-      <c r="B38" s="93"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="6"/>
       <c r="D38" s="9" t="str">
         <f>A8</f>
@@ -3011,86 +3036,86 @@
         <f>C8</f>
         <v>/kotaba</v>
       </c>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="83"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
-      <c r="B39" s="93"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="6"/>
       <c r="D39" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="99" t="str">
+      <c r="E39" s="89" t="str">
         <f>F8</f>
         <v>* Get kotoba list by query
 q=xxx
 by=kana|romaji|kanji|mm|en</v>
       </c>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="83"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="85"/>
     </row>
     <row r="40" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="95"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="6"/>
       <c r="D40" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="99" t="s">
+      <c r="E40" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="83"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="85"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f>'Basic Design'!A13</f>
         <v>3</v>
       </c>
-      <c r="B41" s="96" t="str">
+      <c r="B41" s="90" t="str">
         <f>'Basic Design'!$B$13</f>
         <v>Admin user can update data set.</v>
       </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="98"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="92"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="90">
+      <c r="A42" s="93">
         <f>'Basic Design'!A14</f>
         <v>3.1</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="96" t="str">
+      <c r="B42" s="94"/>
+      <c r="C42" s="90" t="str">
         <f>'Basic Design'!C14</f>
         <v>Register a new word</v>
       </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="98"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="92"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="92"/>
-      <c r="B43" s="93"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="6"/>
       <c r="D43" s="9" t="str">
         <f>A10</f>
@@ -3100,65 +3125,65 @@
         <f>C10</f>
         <v>/kotaba</v>
       </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="83"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="85"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
-      <c r="B44" s="93"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="6"/>
       <c r="D44" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="99" t="s">
+      <c r="E44" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="83"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="85"/>
     </row>
     <row r="45" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="94"/>
-      <c r="B45" s="95"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="6"/>
       <c r="D45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="99" t="s">
+      <c r="E45" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="83"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="85"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="90">
+      <c r="A46" s="93">
         <f>'Basic Design'!A15</f>
         <v>3.2</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="96" t="str">
+      <c r="B46" s="94"/>
+      <c r="C46" s="90" t="str">
         <f>'Basic Design'!C15</f>
         <v>Update a word</v>
       </c>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="98"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="92"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="92"/>
-      <c r="B47" s="93"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="6"/>
       <c r="D47" s="9" t="str">
         <f>A15</f>
@@ -3168,130 +3193,130 @@
         <f>C15</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="83"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="85"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="92"/>
-      <c r="B48" s="93"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="6"/>
       <c r="D48" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="99" t="str">
+      <c r="E48" s="89" t="str">
         <f>F15</f>
         <v>* Update a kotoba by id
 {kotoba_obj}</v>
       </c>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="83"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="85"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="92"/>
-      <c r="B49" s="93"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="6"/>
       <c r="D49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="99" t="s">
+      <c r="E49" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="83"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="85"/>
     </row>
     <row r="50" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
-      <c r="B50" s="95"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="6"/>
       <c r="D50" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="99" t="s">
+      <c r="E50" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="83"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="85"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="90">
+      <c r="A51" s="93">
         <f>'Basic Design'!A16</f>
         <v>3.3</v>
       </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="96" t="str">
+      <c r="B51" s="94"/>
+      <c r="C51" s="90" t="str">
         <f>'Basic Design'!C16</f>
         <v>Remove a word</v>
       </c>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="98"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="92"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="92"/>
-      <c r="B52" s="93"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="6"/>
       <c r="D52" s="9" t="str">
         <f>A16</f>
         <v>DELETE</v>
       </c>
-      <c r="E52" s="101" t="str">
+      <c r="E52" s="114" t="str">
         <f>C16</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="92"/>
-      <c r="B53" s="93"/>
+      <c r="A53" s="95"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="6"/>
       <c r="D53" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="99" t="str">
+      <c r="E53" s="89" t="str">
         <f>F16</f>
         <v>* Delete a kotoba by id</v>
       </c>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="83"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="85"/>
     </row>
     <row r="54" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
-      <c r="B54" s="95"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="6"/>
       <c r="D54" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="99" t="s">
+      <c r="E54" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="83"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="85"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -3306,60 +3331,60 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="101" t="s">
+      <c r="B56" s="116"/>
+      <c r="C56" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="114"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <f>'Basic Design'!A18</f>
         <v>4</v>
       </c>
-      <c r="B57" s="96" t="str">
+      <c r="B57" s="90" t="str">
         <f>'Basic Design'!$B$18</f>
         <v>User registration.</v>
       </c>
-      <c r="C57" s="97"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="98"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="92"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="90">
+      <c r="A58" s="93">
         <f>'Basic Design'!A19</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="B58" s="91"/>
-      <c r="C58" s="96" t="str">
+      <c r="B58" s="94"/>
+      <c r="C58" s="90" t="str">
         <f>'Basic Design'!C19</f>
         <v>Everyone can register with email</v>
       </c>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="98"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="92"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="92"/>
-      <c r="B59" s="93"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="96"/>
       <c r="C59" s="6"/>
       <c r="D59" s="9" t="str">
         <f>A21</f>
@@ -3369,65 +3394,65 @@
         <f>C21</f>
         <v>/user</v>
       </c>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="83"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="85"/>
     </row>
     <row r="60" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="92"/>
-      <c r="B60" s="93"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="96"/>
       <c r="C60" s="6"/>
       <c r="D60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="99" t="s">
+      <c r="E60" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="83"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="85"/>
     </row>
     <row r="61" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="94"/>
-      <c r="B61" s="95"/>
+      <c r="A61" s="97"/>
+      <c r="B61" s="98"/>
       <c r="C61" s="6"/>
       <c r="D61" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="99" t="s">
+      <c r="E61" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="83"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="85"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="90">
+      <c r="A62" s="93">
         <f>'Basic Design'!A20</f>
         <v>4.2</v>
       </c>
-      <c r="B62" s="91"/>
-      <c r="C62" s="96" t="str">
+      <c r="B62" s="94"/>
+      <c r="C62" s="90" t="str">
         <f>'Basic Design'!C20</f>
         <v>Registered user can request token</v>
       </c>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="98"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="92"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="92"/>
-      <c r="B63" s="93"/>
+      <c r="A63" s="95"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="6"/>
       <c r="D63" s="9" t="str">
         <f>A24</f>
@@ -3437,15 +3462,15 @@
         <f>C24</f>
         <v>/user/{id}</v>
       </c>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="82"/>
-      <c r="J63" s="83"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="85"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="92"/>
-      <c r="B64" s="93"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="6"/>
       <c r="D64" s="9" t="s">
         <v>66</v>
@@ -3461,42 +3486,42 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="94"/>
-      <c r="B65" s="95"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="98"/>
       <c r="C65" s="6"/>
       <c r="D65" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="99" t="s">
+      <c r="E65" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="83"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="85"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="90">
+      <c r="A66" s="93">
         <f>'Basic Design'!A21</f>
         <v>4.3</v>
       </c>
-      <c r="B66" s="91"/>
-      <c r="C66" s="96" t="str">
+      <c r="B66" s="94"/>
+      <c r="C66" s="90" t="str">
         <f>'Basic Design'!C21</f>
         <v>Admin can list all user</v>
       </c>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="98"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="92"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="92"/>
-      <c r="B67" s="93"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="14"/>
       <c r="D67" s="18" t="str">
         <f>A20</f>
@@ -3506,49 +3531,49 @@
         <f>C20</f>
         <v>/user</v>
       </c>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="83"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="85"/>
     </row>
     <row r="68" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="94"/>
-      <c r="B68" s="95"/>
+      <c r="A68" s="97"/>
+      <c r="B68" s="98"/>
       <c r="C68" s="14"/>
       <c r="D68" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="99" t="s">
+      <c r="E68" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="83"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="85"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="90">
+      <c r="A69" s="93">
         <f>'Basic Design'!A22</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="96" t="str">
+      <c r="B69" s="94"/>
+      <c r="C69" s="90" t="str">
         <f>'Basic Design'!C22</f>
         <v>Admin can remove user</v>
       </c>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="97"/>
-      <c r="J69" s="98"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="92"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="92"/>
-      <c r="B70" s="93"/>
+      <c r="A70" s="95"/>
+      <c r="B70" s="96"/>
       <c r="C70" s="6"/>
       <c r="D70" s="9" t="str">
         <f>A27</f>
@@ -3558,15 +3583,15 @@
         <f>C27</f>
         <v>/user/{id}</v>
       </c>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="82"/>
-      <c r="I70" s="82"/>
-      <c r="J70" s="83"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="85"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="92"/>
-      <c r="B71" s="93"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="96"/>
       <c r="C71" s="6"/>
       <c r="D71" s="9" t="s">
         <v>66</v>
@@ -3582,20 +3607,20 @@
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="94"/>
-      <c r="B72" s="95"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="98"/>
       <c r="C72" s="6"/>
       <c r="D72" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="99" t="s">
+      <c r="E72" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="82"/>
-      <c r="J72" s="83"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="85"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
@@ -3610,60 +3635,60 @@
       <c r="J73" s="39"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="106" t="s">
+      <c r="A74" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="107"/>
-      <c r="C74" s="101" t="s">
+      <c r="B74" s="116"/>
+      <c r="C74" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="D74" s="101"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="101"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="101"/>
-      <c r="J74" s="101"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="114"/>
+      <c r="H74" s="114"/>
+      <c r="I74" s="114"/>
+      <c r="J74" s="114"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <f>'Basic Design'!A9</f>
         <v>2</v>
       </c>
-      <c r="B75" s="96" t="str">
+      <c r="B75" s="90" t="str">
         <f>'Basic Design'!$B$9</f>
         <v>Registered user can request the whole kotoba set.</v>
       </c>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="98"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="91"/>
+      <c r="F75" s="91"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="91"/>
+      <c r="J75" s="92"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="90">
+      <c r="A76" s="93">
         <f>'Basic Design'!A10</f>
         <v>2.1</v>
       </c>
-      <c r="B76" s="91"/>
-      <c r="C76" s="96" t="str">
+      <c r="B76" s="94"/>
+      <c r="C76" s="90" t="str">
         <f>'Basic Design'!C10</f>
         <v>Request with advance search</v>
       </c>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="98"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="92"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="92"/>
-      <c r="B77" s="93"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="96"/>
       <c r="C77" s="14"/>
       <c r="D77" s="18" t="str">
         <f>A9</f>
@@ -3673,20 +3698,20 @@
         <f>C9</f>
         <v>/kotaba</v>
       </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="82"/>
-      <c r="H77" s="82"/>
-      <c r="I77" s="82"/>
-      <c r="J77" s="83"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="85"/>
     </row>
     <row r="78" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="94"/>
-      <c r="B78" s="95"/>
+      <c r="A78" s="97"/>
+      <c r="B78" s="98"/>
       <c r="C78" s="14"/>
       <c r="D78" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E78" s="99" t="str">
+      <c r="E78" s="89" t="str">
         <f>F9</f>
         <v>* Get kotoba list by other
 level=1|2|3|4|5
@@ -3694,33 +3719,33 @@
 type=i-adj|na-adj|n|v1|v2|v3…
 token=xxxxx</v>
       </c>
-      <c r="F78" s="115"/>
-      <c r="G78" s="115"/>
-      <c r="H78" s="115"/>
-      <c r="I78" s="115"/>
-      <c r="J78" s="116"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="102"/>
+      <c r="I78" s="102"/>
+      <c r="J78" s="103"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="90">
+      <c r="A79" s="93">
         <f>'Basic Design'!A11</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="B79" s="91"/>
-      <c r="C79" s="96" t="str">
+      <c r="B79" s="94"/>
+      <c r="C79" s="90" t="str">
         <f>'Basic Design'!C11</f>
         <v>Request data set version with token</v>
       </c>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="98"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="92"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="92"/>
-      <c r="B80" s="93"/>
+      <c r="A80" s="95"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="6"/>
       <c r="D80" s="9" t="str">
         <f>A31</f>
@@ -3730,15 +3755,15 @@
         <f>C31</f>
         <v>/sys/version</v>
       </c>
-      <c r="F80" s="82"/>
-      <c r="G80" s="82"/>
-      <c r="H80" s="82"/>
-      <c r="I80" s="82"/>
-      <c r="J80" s="83"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="85"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="92"/>
-      <c r="B81" s="93"/>
+      <c r="A81" s="95"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="6"/>
       <c r="D81" s="9" t="s">
         <v>66</v>
@@ -3747,49 +3772,49 @@
         <f>F31</f>
         <v>token=xxxxx</v>
       </c>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
-      <c r="I81" s="82"/>
-      <c r="J81" s="83"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="84"/>
+      <c r="J81" s="85"/>
     </row>
     <row r="82" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="94"/>
-      <c r="B82" s="95"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="98"/>
       <c r="C82" s="6"/>
       <c r="D82" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="99" t="s">
+      <c r="E82" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F82" s="82"/>
-      <c r="G82" s="82"/>
-      <c r="H82" s="82"/>
-      <c r="I82" s="82"/>
-      <c r="J82" s="83"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
+      <c r="J82" s="85"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="90">
+      <c r="A83" s="93">
         <f>'Basic Design'!A12</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="B83" s="91"/>
-      <c r="C83" s="96" t="str">
+      <c r="B83" s="94"/>
+      <c r="C83" s="90" t="str">
         <f>'Basic Design'!C12</f>
         <v>Request the whole data set with token</v>
       </c>
-      <c r="D83" s="97"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="97"/>
-      <c r="G83" s="97"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="97"/>
-      <c r="J83" s="98"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="92"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="92"/>
-      <c r="B84" s="93"/>
+      <c r="A84" s="95"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="6"/>
       <c r="D84" s="9" t="str">
         <f>A32</f>
@@ -3799,15 +3824,15 @@
         <f>C32</f>
         <v>/sys/dataset</v>
       </c>
-      <c r="F84" s="82"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="83"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="85"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="92"/>
-      <c r="B85" s="93"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="6"/>
       <c r="D85" s="9" t="s">
         <v>66</v>
@@ -3816,67 +3841,67 @@
         <f>F32</f>
         <v>token=xxxxx</v>
       </c>
-      <c r="F85" s="82"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="82"/>
-      <c r="I85" s="82"/>
-      <c r="J85" s="83"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="85"/>
     </row>
     <row r="86" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="94"/>
-      <c r="B86" s="95"/>
+      <c r="A86" s="97"/>
+      <c r="B86" s="98"/>
       <c r="C86" s="6"/>
       <c r="D86" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E86" s="99" t="s">
+      <c r="E86" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="F86" s="82"/>
-      <c r="G86" s="82"/>
-      <c r="H86" s="82"/>
-      <c r="I86" s="82"/>
-      <c r="J86" s="83"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="H86" s="84"/>
+      <c r="I86" s="84"/>
+      <c r="J86" s="85"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <f>'Basic Design'!A13</f>
         <v>3</v>
       </c>
-      <c r="B87" s="96" t="str">
+      <c r="B87" s="90" t="str">
         <f>'Basic Design'!$B$13</f>
         <v>Admin user can update data set.</v>
       </c>
-      <c r="C87" s="97"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="97"/>
-      <c r="F87" s="97"/>
-      <c r="G87" s="97"/>
-      <c r="H87" s="97"/>
-      <c r="I87" s="97"/>
-      <c r="J87" s="98"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="92"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="90">
+      <c r="A88" s="93">
         <f>'Basic Design'!A17</f>
         <v>3.4</v>
       </c>
-      <c r="B88" s="91"/>
-      <c r="C88" s="96" t="str">
+      <c r="B88" s="94"/>
+      <c r="C88" s="90" t="str">
         <f>'Basic Design'!$C$17</f>
         <v>Publish data set</v>
       </c>
-      <c r="D88" s="97"/>
-      <c r="E88" s="97"/>
-      <c r="F88" s="97"/>
-      <c r="G88" s="97"/>
-      <c r="H88" s="97"/>
-      <c r="I88" s="97"/>
-      <c r="J88" s="98"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="91"/>
+      <c r="H88" s="91"/>
+      <c r="I88" s="91"/>
+      <c r="J88" s="92"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="92"/>
-      <c r="B89" s="93"/>
+      <c r="A89" s="95"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="6"/>
       <c r="D89" s="9" t="str">
         <f>A33</f>
@@ -3886,99 +3911,99 @@
         <f>C33</f>
         <v>/sys/publish</v>
       </c>
-      <c r="F89" s="82"/>
-      <c r="G89" s="82"/>
-      <c r="H89" s="82"/>
-      <c r="I89" s="82"/>
-      <c r="J89" s="83"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="85"/>
     </row>
     <row r="90" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="94"/>
-      <c r="B90" s="95"/>
+      <c r="A90" s="97"/>
+      <c r="B90" s="98"/>
       <c r="C90" s="6"/>
       <c r="D90" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E90" s="99" t="s">
+      <c r="E90" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="F90" s="82"/>
-      <c r="G90" s="82"/>
-      <c r="H90" s="82"/>
-      <c r="I90" s="82"/>
-      <c r="J90" s="83"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="84"/>
+      <c r="I90" s="84"/>
+      <c r="J90" s="85"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="103" t="s">
+      <c r="B92" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="104"/>
-      <c r="D92" s="103" t="s">
+      <c r="C92" s="105"/>
+      <c r="D92" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="E92" s="114"/>
-      <c r="F92" s="114"/>
-      <c r="G92" s="114"/>
-      <c r="H92" s="114"/>
-      <c r="I92" s="114"/>
-      <c r="J92" s="104"/>
+      <c r="E92" s="113"/>
+      <c r="F92" s="113"/>
+      <c r="G92" s="113"/>
+      <c r="H92" s="113"/>
+      <c r="I92" s="113"/>
+      <c r="J92" s="105"/>
     </row>
     <row r="93" spans="1:10" ht="276.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>1</v>
       </c>
-      <c r="B93" s="89" t="s">
+      <c r="B93" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="C93" s="89"/>
-      <c r="D93" s="102" t="s">
-        <v>243</v>
-      </c>
-      <c r="E93" s="102"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="102"/>
-      <c r="I93" s="102"/>
-      <c r="J93" s="102"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" s="100"/>
+      <c r="F93" s="100"/>
+      <c r="G93" s="100"/>
+      <c r="H93" s="100"/>
+      <c r="I93" s="100"/>
+      <c r="J93" s="100"/>
     </row>
     <row r="94" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="54">
         <v>2</v>
       </c>
-      <c r="B94" s="89" t="s">
+      <c r="B94" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="C94" s="89"/>
-      <c r="D94" s="102" t="s">
+      <c r="C94" s="99"/>
+      <c r="D94" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="E94" s="102"/>
-      <c r="F94" s="102"/>
-      <c r="G94" s="102"/>
-      <c r="H94" s="102"/>
-      <c r="I94" s="102"/>
-      <c r="J94" s="102"/>
+      <c r="E94" s="100"/>
+      <c r="F94" s="100"/>
+      <c r="G94" s="100"/>
+      <c r="H94" s="100"/>
+      <c r="I94" s="100"/>
+      <c r="J94" s="100"/>
     </row>
     <row r="95" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
         <v>3</v>
       </c>
-      <c r="B95" s="89" t="s">
+      <c r="B95" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="89"/>
-      <c r="D95" s="102" t="s">
+      <c r="C95" s="99"/>
+      <c r="D95" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="E95" s="102"/>
-      <c r="F95" s="102"/>
-      <c r="G95" s="102"/>
-      <c r="H95" s="102"/>
-      <c r="I95" s="102"/>
-      <c r="J95" s="102"/>
+      <c r="E95" s="100"/>
+      <c r="F95" s="100"/>
+      <c r="G95" s="100"/>
+      <c r="H95" s="100"/>
+      <c r="I95" s="100"/>
+      <c r="J95" s="100"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -4357,20 +4382,124 @@
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E90:J90"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="A88:B90"/>
-    <mergeCell ref="A58:B61"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="E85:J85"/>
-    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A79:B82"/>
+    <mergeCell ref="A83:B86"/>
+    <mergeCell ref="A66:B68"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="A76:B78"/>
+    <mergeCell ref="E80:J80"/>
+    <mergeCell ref="E81:J81"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:J95"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A37:B40"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D93:J93"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D92:J92"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A69:B72"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="A42:B45"/>
+    <mergeCell ref="A46:B50"/>
+    <mergeCell ref="A51:B54"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="D94:J94"/>
     <mergeCell ref="C33:D33"/>
@@ -4395,126 +4524,22 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A69:B72"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="A42:B45"/>
-    <mergeCell ref="A46:B50"/>
-    <mergeCell ref="A51:B54"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D93:J93"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D92:J92"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B75:J75"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:J95"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A37:B40"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A79:B82"/>
-    <mergeCell ref="A83:B86"/>
-    <mergeCell ref="A66:B68"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="A76:B78"/>
-    <mergeCell ref="E80:J80"/>
-    <mergeCell ref="E81:J81"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E90:J90"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="A88:B90"/>
+    <mergeCell ref="A58:B61"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="E85:J85"/>
+    <mergeCell ref="B87:J87"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="KaungYeeHein@gmail.com"/>
@@ -4537,10 +4562,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="H30" sqref="H30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4559,194 +4584,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="str">
+      <c r="A1" s="90" t="str">
         <f>'Basic Design'!A1</f>
         <v>ProjectID</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="96" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="90" t="str">
         <f>'Basic Design'!D1</f>
         <v>kotoba-api</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="str">
+      <c r="A2" s="90" t="str">
         <f>'Basic Design'!A2</f>
         <v>Project Name</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="96" t="str">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="90" t="str">
         <f>'Basic Design'!D2</f>
         <v>Japan Kotoba</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="str">
+      <c r="A3" s="90" t="str">
         <f>'Basic Design'!A3</f>
         <v>Start Date</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="111">
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="110">
         <f>'Basic Design'!D3</f>
         <v>42864</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="str">
+      <c r="A4" s="90" t="str">
         <f>'Basic Design'!A4</f>
         <v>Owner</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="108" t="str">
+      <c r="B4" s="91"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="107" t="str">
         <f>'Basic Design'!D4</f>
         <v>KaungYeeHein@gmail.com</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="A5" s="128" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="128" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="D7" s="1" t="str">
+        <f>$D$5&amp;"_kotoba_jp"</f>
+        <v>ktb_kotoba_jp</v>
+      </c>
+      <c r="J7" s="127" t="str">
+        <f>$D$5&amp;"_jp"</f>
+        <v>ktb_jp</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B8" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C8" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F8" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G8" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="103" t="s">
+      <c r="H8" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="104"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="I8" s="113"/>
+      <c r="J8" s="105"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B9" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="76" t="str">
-        <f>$D$6&amp;"_id"</f>
-        <v>kotoba_id</v>
-      </c>
-      <c r="D8" s="76" t="s">
+      <c r="C9" s="76" t="str">
+        <f>$J$7&amp;"_id"</f>
+        <v>ktb_jp_id</v>
+      </c>
+      <c r="D9" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E9" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77" t="s">
+      <c r="F9" s="76"/>
+      <c r="G9" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="117" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="118"/>
-      <c r="J8" s="119"/>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="76" t="str">
-        <f>$D$6&amp;"_kana"</f>
-        <v>kotoba_kana</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="76">
-        <v>45</v>
-      </c>
-      <c r="G9" s="77" t="s">
-        <v>239</v>
-      </c>
       <c r="H9" s="117" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I9" s="118"/>
       <c r="J9" s="119"/>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="76" t="str">
-        <f>$D$6&amp;"_romaji"</f>
-        <v>kotoba_romaji</v>
+        <f>$J$7&amp;"_kana"</f>
+        <v>ktb_jp_kana</v>
       </c>
       <c r="D10" s="76" t="s">
         <v>26</v>
@@ -4755,25 +4772,27 @@
         <v>54</v>
       </c>
       <c r="F10" s="76">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="G10" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="H10" s="117"/>
+        <v>238</v>
+      </c>
+      <c r="H10" s="117" t="s">
+        <v>245</v>
+      </c>
       <c r="I10" s="118"/>
       <c r="J10" s="119"/>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="76" t="str">
-        <f>$D$6&amp;"_kanji"</f>
-        <v>kotoba_kanji</v>
+        <f>$J$7&amp;"_romaji"</f>
+        <v>ktb_jp_romaji</v>
       </c>
       <c r="D11" s="76" t="s">
         <v>26</v>
@@ -4782,25 +4801,25 @@
         <v>54</v>
       </c>
       <c r="F11" s="76">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>241</v>
-      </c>
-      <c r="H11" s="117" t="s">
-        <v>246</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="H11" s="117"/>
       <c r="I11" s="118"/>
       <c r="J11" s="119"/>
     </row>
-    <row r="12" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="76"/>
+        <v>28</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" s="76" t="str">
-        <f>$D$6&amp;"_level"</f>
-        <v>kotoba_level</v>
+        <f>$J$7&amp;"_kanji"</f>
+        <v>ktb_jp_kanji</v>
       </c>
       <c r="D12" s="76" t="s">
         <v>26</v>
@@ -4809,79 +4828,79 @@
         <v>54</v>
       </c>
       <c r="F12" s="76">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="H12" s="117" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="I12" s="118"/>
       <c r="J12" s="119"/>
     </row>
-    <row r="13" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="76"/>
       <c r="C13" s="76" t="str">
-        <f>$D$6&amp;"_chapter"</f>
-        <v>kotoba_chapter</v>
+        <f>$J$7&amp;"_level"</f>
+        <v>ktb_jp_level</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F13" s="76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>247</v>
+        <v>143</v>
       </c>
       <c r="H13" s="117" t="s">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="I13" s="118"/>
       <c r="J13" s="119"/>
     </row>
-    <row r="14" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="76" t="str">
-        <f>$D$6&amp;"_type"</f>
-        <v>kotoba_type</v>
+        <f>$J$7&amp;"_chapter"</f>
+        <v>ktb_jp_chapter</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F14" s="76">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H14" s="117" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="I14" s="118"/>
       <c r="J14" s="119"/>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="76"/>
       <c r="C15" s="76" t="str">
-        <f>$D$6&amp;"_sample"</f>
-        <v>kotoba_sample</v>
+        <f>$J$7&amp;"_type"</f>
+        <v>ktb_jp_type</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>26</v>
@@ -4890,192 +4909,199 @@
         <v>54</v>
       </c>
       <c r="F15" s="76">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="H15" s="117" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="I15" s="118"/>
       <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="76"/>
       <c r="C16" s="76" t="str">
-        <f>$D$6&amp;"_create_date"</f>
-        <v>kotoba_create_date</v>
+        <f>$J$7&amp;"_sample"</f>
+        <v>ktb_jp_sample</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="76"/>
+        <v>54</v>
+      </c>
+      <c r="F16" s="76">
+        <v>255</v>
+      </c>
       <c r="G16" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="117"/>
+        <v>144</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>245</v>
+      </c>
       <c r="I16" s="118"/>
       <c r="J16" s="119"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="76"/>
       <c r="C17" s="76" t="str">
-        <f>$D$6&amp;"_update_date"</f>
-        <v>kotoba_update_date</v>
+        <f>$J$7&amp;"_create_date"</f>
+        <v>ktb_jp_create_date</v>
       </c>
       <c r="D17" s="76" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F17" s="76"/>
       <c r="G17" s="77" t="s">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="H17" s="117"/>
       <c r="I17" s="118"/>
       <c r="J17" s="119"/>
     </row>
-    <row r="18" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="76"/>
       <c r="C18" s="76" t="str">
-        <f>$D$6&amp;"_delete_flag"</f>
-        <v>kotoba_delete_flag</v>
+        <f>$J$7&amp;"_update_date"</f>
+        <v>ktb_jp_update_date</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="76">
-        <v>1</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="F18" s="76"/>
       <c r="G18" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="H18" s="117" t="s">
-        <v>41</v>
-      </c>
+      <c r="H18" s="117"/>
       <c r="I18" s="118"/>
       <c r="J18" s="119"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76" t="str">
+        <f>$J$7&amp;"_delete_flag"</f>
+        <v>ktb_jp_delete_flag</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="76">
+        <v>1</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="H19" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="118"/>
+      <c r="J19" s="119"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="1" t="str">
-        <f>$D$6&amp;"_mm"</f>
-        <v>kotoba_mm</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="D21" s="1" t="str">
+        <f>$D$5&amp;"_kotoba_mm"</f>
+        <v>ktb_kotoba_mm</v>
+      </c>
+      <c r="J21" s="127" t="str">
+        <f>$D$5&amp;"_mm"</f>
+        <v>ktb_mm</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B22" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C22" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D22" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E22" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F22" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G22" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="103" t="s">
+      <c r="H22" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="114"/>
-      <c r="J21" s="104"/>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="I22" s="113"/>
+      <c r="J22" s="105"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="76" t="str">
-        <f>$D$6&amp;"_id"</f>
-        <v>kotoba_id</v>
-      </c>
-      <c r="D22" s="76" t="s">
+      <c r="B23" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="76" t="str">
+        <f>$J$21&amp;"_id"</f>
+        <v>ktb_mm_id</v>
+      </c>
+      <c r="D23" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E23" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77" t="s">
+      <c r="F23" s="76"/>
+      <c r="G23" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="117" t="s">
-        <v>250</v>
-      </c>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
-    </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="76" t="str">
-        <f>$D$6&amp;"_name"</f>
-        <v>kotoba_name</v>
-      </c>
-      <c r="D23" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="76">
-        <v>100</v>
-      </c>
-      <c r="G23" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="H23" s="117"/>
+      <c r="H23" s="117" t="str">
+        <f>"Ref: "&amp;$C$9</f>
+        <v>Ref: ktb_jp_id</v>
+      </c>
       <c r="I23" s="118"/>
       <c r="J23" s="119"/>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>57</v>
+      </c>
       <c r="C24" s="76" t="str">
-        <f>$D$6&amp;"_sample"</f>
-        <v>kotoba_sample</v>
+        <f>$J$21&amp;"_name"</f>
+        <v>ktb_mm_name</v>
       </c>
       <c r="D24" s="76" t="s">
         <v>26</v>
@@ -5084,144 +5110,153 @@
         <v>54</v>
       </c>
       <c r="F24" s="76">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="G24" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="117"/>
+        <v>239</v>
+      </c>
+      <c r="H24" s="117" t="s">
+        <v>245</v>
+      </c>
       <c r="I24" s="118"/>
       <c r="J24" s="119"/>
     </row>
-    <row r="25" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B25" s="76"/>
       <c r="C25" s="76" t="str">
-        <f>$D$6&amp;"_delete_flag"</f>
-        <v>kotoba_delete_flag</v>
+        <f>$J$21&amp;"_sample"</f>
+        <v>ktb_mm_sample</v>
       </c>
       <c r="D25" s="76" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F25" s="76">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="G25" s="77" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="H25" s="117" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="I25" s="118"/>
       <c r="J25" s="119"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="26" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76" t="str">
+        <f>$J$21&amp;"_delete_flag"</f>
+        <v>ktb_mm_delete_flag</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="76">
+        <v>1</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="H26" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="118"/>
+      <c r="J26" s="119"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="1" t="str">
-        <f>$D$6&amp;"_en"</f>
-        <v>kotoba_en</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="D28" s="1" t="str">
+        <f>$D$5&amp;"_kotoba_en"</f>
+        <v>ktb_kotoba_en</v>
+      </c>
+      <c r="J28" s="127" t="str">
+        <f>$D$5&amp;"_en"</f>
+        <v>ktb_en</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B29" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C29" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E29" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F29" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G29" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="H28" s="103" t="s">
+      <c r="H29" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="114"/>
-      <c r="J28" s="104"/>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
+      <c r="I29" s="113"/>
+      <c r="J29" s="105"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="C29" s="76" t="str">
-        <f>$D$6&amp;"_id"</f>
-        <v>kotoba_id</v>
-      </c>
-      <c r="D29" s="76" t="s">
+      <c r="B30" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="76" t="str">
+        <f>$J$28&amp;"_id"</f>
+        <v>ktb_en_id</v>
+      </c>
+      <c r="D30" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E30" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77" t="s">
+      <c r="F30" s="76"/>
+      <c r="G30" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="117" t="s">
-        <v>250</v>
-      </c>
-      <c r="I29" s="118"/>
-      <c r="J29" s="119"/>
-    </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="76" t="str">
-        <f>$D$6&amp;"_name"</f>
-        <v>kotoba_name</v>
-      </c>
-      <c r="D30" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="76">
-        <v>100</v>
-      </c>
-      <c r="G30" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="H30" s="117"/>
+      <c r="H30" s="117" t="str">
+        <f>"Ref: "&amp;$C$9</f>
+        <v>Ref: ktb_jp_id</v>
+      </c>
       <c r="I30" s="118"/>
       <c r="J30" s="119"/>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="76"/>
+        <v>62</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>57</v>
+      </c>
       <c r="C31" s="76" t="str">
-        <f>$D$6&amp;"_sample"</f>
-        <v>kotoba_sample</v>
+        <f>$J$28&amp;"_name"</f>
+        <v>ktb_en_name</v>
       </c>
       <c r="D31" s="76" t="s">
         <v>26</v>
@@ -5230,138 +5265,143 @@
         <v>54</v>
       </c>
       <c r="F31" s="76">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="117"/>
+        <v>239</v>
+      </c>
+      <c r="H31" s="117" t="s">
+        <v>245</v>
+      </c>
       <c r="I31" s="118"/>
       <c r="J31" s="119"/>
     </row>
-    <row r="32" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="76"/>
       <c r="C32" s="76" t="str">
-        <f>$D$6&amp;"_delete_flag"</f>
-        <v>kotoba_delete_flag</v>
+        <f>$J$28&amp;"_sample"</f>
+        <v>ktb_en_sample</v>
       </c>
       <c r="D32" s="76" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F32" s="76">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="G32" s="77" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="H32" s="117" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="I32" s="118"/>
       <c r="J32" s="119"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="33" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76" t="str">
+        <f>$J$28&amp;"_delete_flag"</f>
+        <v>ktb_en_delete_flag</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="76">
+        <v>1</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="118"/>
+      <c r="J33" s="119"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B36" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C36" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E36" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F36" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G36" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="H35" s="103" t="s">
+      <c r="H36" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="114"/>
-      <c r="J35" s="104"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="I36" s="113"/>
+      <c r="J36" s="105"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C37" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E37" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="26" t="s">
+      <c r="F37" s="17"/>
+      <c r="G37" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="100"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="80"/>
-    </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="17">
-        <v>255</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" s="100"/>
+      <c r="H37" s="101"/>
       <c r="I37" s="79"/>
       <c r="J37" s="80"/>
     </row>
-    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="C38" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>26</v>
@@ -5373,19 +5413,19 @@
         <v>255</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H38" s="100"/>
+        <v>146</v>
+      </c>
+      <c r="H38" s="101"/>
       <c r="I38" s="79"/>
       <c r="J38" s="80"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>26</v>
@@ -5399,17 +5439,17 @@
       <c r="G39" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="119"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="80"/>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>26</v>
@@ -5423,180 +5463,178 @@
       <c r="G40" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="100"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="80"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="117"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="119"/>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F41" s="17">
+        <v>255</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="101"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="80"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F42" s="17"/>
-      <c r="G42" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="I42" s="118"/>
-      <c r="J42" s="119"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="17">
-        <v>1</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>140</v>
+        <v>46</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="H43" s="117" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="I43" s="118"/>
       <c r="J43" s="119"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="17">
+        <v>1</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="118"/>
+      <c r="J44" s="119"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B47" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C47" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D47" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E47" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F47" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="G47" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="103" t="s">
+      <c r="H47" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="114"/>
-      <c r="J46" s="104"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="I47" s="113"/>
+      <c r="J47" s="105"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C48" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D48" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E48" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="26" t="s">
+      <c r="F48" s="17"/>
+      <c r="G48" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="H47" s="100"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="80"/>
-    </row>
-    <row r="48" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="17">
-        <v>20</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H48" s="117" t="s">
-        <v>112</v>
-      </c>
+      <c r="H48" s="101"/>
       <c r="I48" s="79"/>
       <c r="J48" s="80"/>
     </row>
-    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="17"/>
+        <v>93</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="C49" s="17" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>26</v>
@@ -5605,86 +5643,114 @@
         <v>54</v>
       </c>
       <c r="F49" s="17">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G49" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="H49" s="100"/>
+      <c r="H49" s="117" t="s">
+        <v>112</v>
+      </c>
       <c r="I49" s="79"/>
       <c r="J49" s="80"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="17">
+        <v>50</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="101"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="80"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D51" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E51" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>1</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G51" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="H50" s="117" t="s">
+      <c r="H51" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="118"/>
-      <c r="J50" s="119"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="119"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H13:J13"/>
+  <mergeCells count="45">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:J3"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="KaungYeeHein@gmail.com"/>
@@ -5696,7 +5762,7 @@
     <oddFooter>&amp;CPrepared by Kaung Yee Hein &amp;D</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="44" max="16383" man="1"/>
+    <brk id="45" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -5705,8 +5771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5721,94 +5787,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="str">
+      <c r="A1" s="90" t="str">
         <f>'Basic Design'!A1</f>
         <v>ProjectID</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="96" t="str">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="90" t="str">
         <f>'Basic Design'!D1</f>
         <v>kotoba-api</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="str">
+      <c r="A2" s="90" t="str">
         <f>'Basic Design'!A2</f>
         <v>Project Name</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="96" t="str">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="90" t="str">
         <f>'Basic Design'!D2</f>
         <v>Japan Kotoba</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="str">
+      <c r="A3" s="90" t="str">
         <f>'Basic Design'!A3</f>
         <v>Start Date</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="111">
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="110">
         <f>'Basic Design'!D3</f>
         <v>42864</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="str">
+      <c r="A4" s="90" t="str">
         <f>'Basic Design'!A4</f>
         <v>Owner</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="108" t="str">
+      <c r="B4" s="91"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="107" t="str">
         <f>'Basic Design'!D4</f>
         <v>KaungYeeHein@gmail.com</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="str">
+      <c r="A6" s="99" t="str">
         <f>'Detailed Design'!$A$35</f>
         <v>Version</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89" t="str">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99" t="str">
         <f>'Detailed Design'!$C$35</f>
         <v>0.1.0</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
@@ -5823,52 +5889,52 @@
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="str">
+      <c r="A8" s="99" t="str">
         <f>'Detailed Design'!$A$6</f>
         <v>Module:</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89" t="str">
+      <c r="B8" s="99"/>
+      <c r="C8" s="99" t="str">
         <f>'Detailed Design'!$C$6</f>
         <v>/kotaba</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="103" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="104"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
       <c r="J9" s="37" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="str">
+      <c r="A10" s="101" t="str">
         <f>'Detailed Design'!A8</f>
         <v>GET</v>
       </c>
       <c r="B10" s="80"/>
-      <c r="C10" s="100" t="str">
+      <c r="C10" s="101" t="str">
         <f>'Detailed Design'!C8</f>
         <v>/kotaba</v>
       </c>
@@ -5877,27 +5943,27 @@
         <f>'Detailed Design'!E8</f>
         <v>public</v>
       </c>
-      <c r="F10" s="102" t="str">
+      <c r="F10" s="100" t="str">
         <f>'Detailed Design'!F8</f>
         <v>* Get kotoba list by query
 q=xxx
 by=kana|romaji|kanji|mm|en</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
       <c r="J10" s="28">
         <f>'Detailed Design'!J8</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="100" t="str">
+    <row r="11" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="str">
         <f>'Detailed Design'!A10</f>
         <v>POST</v>
       </c>
       <c r="B11" s="80"/>
-      <c r="C11" s="100" t="str">
+      <c r="C11" s="101" t="str">
         <f>'Detailed Design'!C10</f>
         <v>/kotaba</v>
       </c>
@@ -5906,26 +5972,26 @@
         <f>'Detailed Design'!E10</f>
         <v>admin</v>
       </c>
-      <c r="F11" s="127" t="str">
+      <c r="F11" s="131" t="str">
         <f>'Detailed Design'!F10</f>
         <v>* Add a new kotoba
 {kotoba_obj}</v>
       </c>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="29">
         <f>'Detailed Design'!J10</f>
         <v>3.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="str">
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="str">
         <f>'Detailed Design'!A15</f>
         <v>PUT</v>
       </c>
       <c r="B12" s="80"/>
-      <c r="C12" s="100" t="str">
+      <c r="C12" s="101" t="str">
         <f>'Detailed Design'!C15</f>
         <v>/kotaba/{id}</v>
       </c>
@@ -5934,26 +6000,26 @@
         <f>'Detailed Design'!E15</f>
         <v>admin</v>
       </c>
-      <c r="F12" s="89" t="str">
+      <c r="F12" s="100" t="str">
         <f>'Detailed Design'!F15</f>
         <v>* Update a kotoba by id
 {kotoba_obj}</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
       <c r="J12" s="29">
         <f>'Detailed Design'!J15</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="str">
+      <c r="A13" s="101" t="str">
         <f>'Detailed Design'!A16</f>
         <v>DELETE</v>
       </c>
       <c r="B13" s="80"/>
-      <c r="C13" s="100" t="str">
+      <c r="C13" s="101" t="str">
         <f>'Detailed Design'!C16</f>
         <v>/kotaba/{id}</v>
       </c>
@@ -5962,13 +6028,13 @@
         <f>'Detailed Design'!E16</f>
         <v>admin</v>
       </c>
-      <c r="F13" s="89" t="str">
+      <c r="F13" s="100" t="str">
         <f>'Detailed Design'!F16</f>
         <v>* Delete a kotoba by id</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="29">
         <f>'Detailed Design'!J16</f>
         <v>3.3</v>
@@ -5978,40 +6044,40 @@
       <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="str">
+      <c r="A15" s="99" t="str">
         <f>'Detailed Design'!$A$35</f>
         <v>Version</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89" t="str">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99" t="str">
         <f>'Detailed Design'!$C$35</f>
         <v>0.1.0</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <f>'Basic Design'!A7</f>
         <v>1</v>
       </c>
-      <c r="B16" s="96" t="str">
+      <c r="B16" s="90" t="str">
         <f>'Basic Design'!B7</f>
         <v>Everyone can request both Myanmar, Japanese and English language one by one.</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="81">
@@ -6019,17 +6085,17 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B17" s="81"/>
-      <c r="C17" s="96" t="str">
+      <c r="C17" s="90" t="str">
         <f>'Basic Design'!C8</f>
         <v>Request with Myanmar (unicode) or Japanese or English words</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="92"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="81"/>
@@ -6039,15 +6105,15 @@
         <f>'Detailed Design'!D38</f>
         <v>GET</v>
       </c>
-      <c r="E18" s="96" t="str">
+      <c r="E18" s="90" t="str">
         <f>'Detailed Design'!E38</f>
         <v>/kotaba</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="92"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="81"/>
@@ -6057,17 +6123,17 @@
         <f>'Detailed Design'!D39</f>
         <v>Parameter</v>
       </c>
-      <c r="E19" s="124" t="str">
+      <c r="E19" s="123" t="str">
         <f>'Detailed Design'!E39</f>
         <v>* Get kotoba list by query
 q=xxx
 by=kana|romaji|kanji|mm|en</v>
       </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="98"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="92"/>
     </row>
     <row r="20" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="81"/>
@@ -6077,20 +6143,20 @@
         <f>'Detailed Design'!D40</f>
         <v>Response</v>
       </c>
-      <c r="E20" s="124" t="str">
+      <c r="E20" s="123" t="str">
         <f>'Detailed Design'!E40</f>
         <v>HttpStatus.OK|HttpStatus.NO_CONTENT
 [{kotoba_obj},{kotoba_obj}]</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="92"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
-      <c r="B21" s="125">
+      <c r="B21" s="126">
         <v>1</v>
       </c>
       <c r="C21" s="47"/>
@@ -6106,8 +6172,8 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="123">
+      <c r="B22" s="126"/>
+      <c r="C22" s="125">
         <v>1.1000000000000001</v>
       </c>
       <c r="D22" s="45" t="s">
@@ -6122,8 +6188,8 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="123"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="125"/>
       <c r="D23" s="46" t="s">
         <v>135</v>
       </c>
@@ -6136,11 +6202,9 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="46" t="s">
-        <v>136</v>
-      </c>
+      <c r="B24" s="126"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -6150,11 +6214,9 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="50"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="46" t="s">
-        <v>137</v>
-      </c>
+      <c r="B25" s="126"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
@@ -6164,8 +6226,8 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="123" t="s">
+      <c r="B26" s="126"/>
+      <c r="C26" s="125" t="s">
         <v>115</v>
       </c>
       <c r="D26" s="45" t="s">
@@ -6180,8 +6242,8 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="123"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="46" t="s">
         <v>138</v>
       </c>
@@ -6194,8 +6256,8 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="123"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="46" t="s">
         <v>136</v>
       </c>
@@ -6208,8 +6270,8 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="50"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="123"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="46" t="s">
         <v>137</v>
       </c>
@@ -6222,8 +6284,8 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="123" t="s">
+      <c r="B30" s="126"/>
+      <c r="C30" s="125" t="s">
         <v>116</v>
       </c>
       <c r="D30" s="45" t="s">
@@ -6238,8 +6300,8 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="123"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="125"/>
       <c r="D31" s="46" t="s">
         <v>139</v>
       </c>
@@ -6252,8 +6314,8 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="123"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="125"/>
       <c r="D32" s="46" t="s">
         <v>136</v>
       </c>
@@ -6266,8 +6328,8 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="50"/>
-      <c r="B33" s="125"/>
-      <c r="C33" s="123"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="125"/>
       <c r="D33" s="46" t="s">
         <v>137</v>
       </c>
@@ -6280,8 +6342,8 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
-      <c r="B34" s="125"/>
-      <c r="C34" s="123" t="s">
+      <c r="B34" s="126"/>
+      <c r="C34" s="125" t="s">
         <v>117</v>
       </c>
       <c r="D34" s="45" t="s">
@@ -6296,8 +6358,8 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
-      <c r="B35" s="125"/>
-      <c r="C35" s="123"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="125"/>
       <c r="D35" s="46" t="s">
         <v>149</v>
       </c>
@@ -6310,8 +6372,8 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="123"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="125"/>
       <c r="D36" s="46" t="s">
         <v>150</v>
       </c>
@@ -6324,8 +6386,8 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="123"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="125"/>
       <c r="D37" s="46" t="s">
         <v>151</v>
       </c>
@@ -6338,8 +6400,8 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="123"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="125"/>
       <c r="D38" s="46" t="s">
         <v>137</v>
       </c>
@@ -6352,8 +6414,8 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="49"/>
-      <c r="B39" s="125"/>
-      <c r="C39" s="123" t="s">
+      <c r="B39" s="126"/>
+      <c r="C39" s="125" t="s">
         <v>118</v>
       </c>
       <c r="D39" s="45" t="s">
@@ -6368,8 +6430,8 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="50"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="123"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="125"/>
       <c r="D40" s="46" t="s">
         <v>152</v>
       </c>
@@ -6382,8 +6444,8 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="123"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="125"/>
       <c r="D41" s="46" t="s">
         <v>150</v>
       </c>
@@ -6396,8 +6458,8 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="50"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="123"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="125"/>
       <c r="D42" s="46" t="s">
         <v>153</v>
       </c>
@@ -6410,8 +6472,8 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="123"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="125"/>
       <c r="D43" s="46" t="s">
         <v>136</v>
       </c>
@@ -6424,7 +6486,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="125"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="120" t="s">
         <v>120</v>
       </c>
@@ -6440,8 +6502,8 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="121"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="122"/>
       <c r="D45" s="46" t="s">
         <v>163</v>
       </c>
@@ -6454,7 +6516,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
-      <c r="B46" s="125"/>
+      <c r="B46" s="126"/>
       <c r="C46" s="120" t="s">
         <v>133</v>
       </c>
@@ -6470,8 +6532,8 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="121"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="122"/>
       <c r="D47" s="53" t="s">
         <v>162</v>
       </c>
@@ -6484,10 +6546,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
-      <c r="B48" s="123" t="s">
+      <c r="B48" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="125"/>
+      <c r="C48" s="126"/>
       <c r="D48" s="15" t="s">
         <v>113</v>
       </c>
@@ -6500,8 +6562,8 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="49"/>
-      <c r="B49" s="123"/>
-      <c r="C49" s="125"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="126"/>
       <c r="D49" s="52" t="s">
         <v>162</v>
       </c>
@@ -6586,7 +6648,7 @@
         <f>'Detailed Design'!D44</f>
         <v>Format</v>
       </c>
-      <c r="E54" s="126" t="str">
+      <c r="E54" s="124" t="str">
         <f>'Detailed Design'!E44</f>
         <v>{kotoba_obj}</v>
       </c>
@@ -6604,7 +6666,7 @@
         <f>'Detailed Design'!D45</f>
         <v>Response</v>
       </c>
-      <c r="E55" s="126" t="str">
+      <c r="E55" s="124" t="str">
         <f>'Detailed Design'!E45</f>
         <v>{
   "result":"OK"|"NG",
@@ -6635,7 +6697,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
-      <c r="B57" s="121"/>
+      <c r="B57" s="122"/>
       <c r="C57" s="120" t="s">
         <v>131</v>
       </c>
@@ -6651,8 +6713,8 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="122"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="121"/>
       <c r="D58" s="53" t="s">
         <v>132</v>
       </c>
@@ -6665,7 +6727,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
-      <c r="B59" s="121"/>
+      <c r="B59" s="122"/>
       <c r="C59" s="120" t="s">
         <v>115</v>
       </c>
@@ -6681,8 +6743,8 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
       <c r="D60" s="53" t="s">
         <v>134</v>
       </c>
@@ -6695,8 +6757,8 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="122"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121"/>
       <c r="D61" s="46" t="s">
         <v>129</v>
       </c>
@@ -6725,8 +6787,8 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
-      <c r="B63" s="122"/>
-      <c r="C63" s="122"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="121"/>
       <c r="D63" s="45" t="s">
         <v>130</v>
       </c>
@@ -6750,98 +6812,98 @@
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="90">
+      <c r="A65" s="93">
         <f>'Basic Design'!A15</f>
         <v>3.2</v>
       </c>
-      <c r="B65" s="91"/>
-      <c r="C65" s="96" t="str">
+      <c r="B65" s="94"/>
+      <c r="C65" s="90" t="str">
         <f>'Basic Design'!C15</f>
         <v>Update a word</v>
       </c>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="97"/>
-      <c r="J65" s="98"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="92"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="92"/>
-      <c r="B66" s="93"/>
+      <c r="A66" s="95"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14" t="str">
         <f>'Detailed Design'!D47</f>
         <v>PUT</v>
       </c>
-      <c r="E66" s="96" t="str">
+      <c r="E66" s="90" t="str">
         <f>'Detailed Design'!E47</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="98"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="92"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="92"/>
-      <c r="B67" s="93"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14" t="str">
         <f>'Detailed Design'!D48</f>
         <v>Parameter</v>
       </c>
-      <c r="E67" s="124" t="str">
+      <c r="E67" s="123" t="str">
         <f>'Detailed Design'!E48</f>
         <v>* Update a kotoba by id
 {kotoba_obj}</v>
       </c>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="97"/>
-      <c r="J67" s="98"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="92"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="92"/>
-      <c r="B68" s="93"/>
+      <c r="A68" s="95"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14" t="str">
         <f>'Detailed Design'!D49</f>
         <v>Format</v>
       </c>
-      <c r="E68" s="124" t="str">
+      <c r="E68" s="123" t="str">
         <f>'Detailed Design'!E49</f>
         <v>{kotoba_obj}</v>
       </c>
-      <c r="F68" s="97"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="97"/>
-      <c r="J68" s="98"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="92"/>
     </row>
     <row r="69" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="94"/>
-      <c r="B69" s="95"/>
+      <c r="A69" s="97"/>
+      <c r="B69" s="98"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14" t="str">
         <f>'Detailed Design'!D50</f>
         <v>Response</v>
       </c>
-      <c r="E69" s="124" t="str">
+      <c r="E69" s="123" t="str">
         <f>'Detailed Design'!E50</f>
         <v>{
   "result":"OK"|"NG",
   "message":"xxxxx"
 }</v>
       </c>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="97"/>
-      <c r="J69" s="98"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="92"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
@@ -6861,7 +6923,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
-      <c r="B71" s="121"/>
+      <c r="B71" s="122"/>
       <c r="C71" s="47" t="s">
         <v>131</v>
       </c>
@@ -6877,7 +6939,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
-      <c r="B72" s="121"/>
+      <c r="B72" s="122"/>
       <c r="C72" s="120" t="s">
         <v>115</v>
       </c>
@@ -6893,8 +6955,8 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="48"/>
-      <c r="B73" s="121"/>
-      <c r="C73" s="122"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="121"/>
       <c r="D73" s="53" t="s">
         <v>158</v>
       </c>
@@ -6907,7 +6969,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
-      <c r="B74" s="121"/>
+      <c r="B74" s="122"/>
       <c r="C74" s="120" t="s">
         <v>116</v>
       </c>
@@ -6923,8 +6985,8 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
-      <c r="B75" s="122"/>
-      <c r="C75" s="122"/>
+      <c r="B75" s="121"/>
+      <c r="C75" s="121"/>
       <c r="D75" s="46" t="s">
         <v>154</v>
       </c>
@@ -6953,8 +7015,8 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="48"/>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
       <c r="D77" s="45" t="s">
         <v>154</v>
       </c>
@@ -6978,26 +7040,26 @@
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="96">
+      <c r="A79" s="90">
         <f>'Basic Design'!A16</f>
         <v>3.3</v>
       </c>
-      <c r="B79" s="98"/>
-      <c r="C79" s="96" t="str">
+      <c r="B79" s="92"/>
+      <c r="C79" s="90" t="str">
         <f>'Basic Design'!C16</f>
         <v>Remove a word</v>
       </c>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="98"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="92"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="96"/>
-      <c r="B80" s="98"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="92"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14" t="str">
         <f>'Detailed Design'!D52</f>
@@ -7014,43 +7076,43 @@
       <c r="J80" s="81"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="96"/>
-      <c r="B81" s="98"/>
+      <c r="A81" s="90"/>
+      <c r="B81" s="92"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14" t="str">
         <f>'Detailed Design'!D53</f>
         <v>Parameter</v>
       </c>
-      <c r="E81" s="124" t="str">
+      <c r="E81" s="123" t="str">
         <f>'Detailed Design'!E53</f>
         <v>* Delete a kotoba by id</v>
       </c>
-      <c r="F81" s="97"/>
-      <c r="G81" s="97"/>
-      <c r="H81" s="97"/>
-      <c r="I81" s="97"/>
-      <c r="J81" s="98"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="91"/>
+      <c r="J81" s="92"/>
     </row>
     <row r="82" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="96"/>
-      <c r="B82" s="98"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="92"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14" t="str">
         <f>'Detailed Design'!D54</f>
         <v>Response</v>
       </c>
-      <c r="E82" s="124" t="str">
+      <c r="E82" s="123" t="str">
         <f>'Detailed Design'!E54</f>
         <v>{
   "result":"OK"|"NG",
   "message":"xxxxx"
 }</v>
       </c>
-      <c r="F82" s="97"/>
-      <c r="G82" s="97"/>
-      <c r="H82" s="97"/>
-      <c r="I82" s="97"/>
-      <c r="J82" s="98"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="92"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="48"/>
@@ -7070,7 +7132,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="48"/>
-      <c r="B84" s="121"/>
+      <c r="B84" s="122"/>
       <c r="C84" s="48" t="s">
         <v>131</v>
       </c>
@@ -7086,7 +7148,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="48"/>
-      <c r="B85" s="121"/>
+      <c r="B85" s="122"/>
       <c r="C85" s="120" t="s">
         <v>115</v>
       </c>
@@ -7102,8 +7164,8 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="48"/>
-      <c r="B86" s="121"/>
-      <c r="C86" s="122"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="121"/>
       <c r="D86" s="53" t="s">
         <v>160</v>
       </c>
@@ -7116,7 +7178,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="48"/>
-      <c r="B87" s="121"/>
+      <c r="B87" s="122"/>
       <c r="C87" s="120" t="s">
         <v>116</v>
       </c>
@@ -7132,8 +7194,8 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="48"/>
-      <c r="B88" s="122"/>
-      <c r="C88" s="122"/>
+      <c r="B88" s="121"/>
+      <c r="C88" s="121"/>
       <c r="D88" s="46" t="s">
         <v>154</v>
       </c>
@@ -7162,8 +7224,8 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="48"/>
-      <c r="B90" s="122"/>
-      <c r="C90" s="122"/>
+      <c r="B90" s="121"/>
+      <c r="C90" s="121"/>
       <c r="D90" s="45" t="s">
         <v>154</v>
       </c>
@@ -7176,6 +7238,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A65:B69"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B21:B47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="A52:B55"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A17:B20"/>
     <mergeCell ref="C87:C88"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:I11"/>
@@ -7192,67 +7315,6 @@
     <mergeCell ref="E82:J82"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="A52:B55"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A17:B20"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A65:B69"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B21:B47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="KaungYeeHein@gmail.com"/>

--- a/kotoba-doc/Requirement.xlsx
+++ b/kotoba-doc/Requirement.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Entity Definition" sheetId="3" r:id="rId3"/>
     <sheet name="Program Design" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="249">
   <si>
     <t>Requirement</t>
   </si>
@@ -486,21 +486,6 @@
     <t>add to vocabulary_jp, vocabulary_mm and vocabulary_en</t>
   </si>
   <si>
-    <t>get data from vocabulary_jp where kana like query%</t>
-  </si>
-  <si>
-    <t>add data from vocabulary_mm where mm.vid equal jp.vid</t>
-  </si>
-  <si>
-    <t>add data from vocabulary_en where en.vid equal jp.vid</t>
-  </si>
-  <si>
-    <t>get data from vocabulary_jp where romaji like query%</t>
-  </si>
-  <si>
-    <t>get data from vocabulary_jp where kanji like query%</t>
-  </si>
-  <si>
     <t>Not Null</t>
   </si>
   <si>
@@ -537,21 +522,6 @@
   <si>
     <t>Not Null
 Full 1</t>
-  </si>
-  <si>
-    <t>get mm_list from vocabulary_mm where v_mm like query%</t>
-  </si>
-  <si>
-    <t>get data from vocabulary_jp where jp.vid equal list.vid</t>
-  </si>
-  <si>
-    <t>add data from mm_list where list.vid equal jp.vid</t>
-  </si>
-  <si>
-    <t>get en_list from vocabulary_en where v_en like query%</t>
-  </si>
-  <si>
-    <t>add data from en_list where list.vid equal jp.vid</t>
   </si>
   <si>
     <t>return result is "NG" and message is "not found"</t>
@@ -906,11 +876,29 @@
   <si>
     <t>ktb</t>
   </si>
+  <si>
+    <t xml:space="preserve">get data from ktb_kotoba_jp </t>
+  </si>
+  <si>
+    <t>where ktb_jp_kanji like q%</t>
+  </si>
+  <si>
+    <t>where ktb_jp_romaji like insensitive q%</t>
+  </si>
+  <si>
+    <t>where ktb_jp_kana like q%</t>
+  </si>
+  <si>
+    <t>where ktb_mm_name like q%</t>
+  </si>
+  <si>
+    <t>where ktb_en_name like insensitive q%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1414,6 +1402,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1426,64 +1417,103 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1492,44 +1522,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1543,35 +1543,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1875,68 +1863,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="85">
         <v>42864</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1951,34 +1939,34 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1987,32 +1975,32 @@
       <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="84"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
+      <c r="B9" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -2039,16 +2027,16 @@
       <c r="B11" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -2057,32 +2045,32 @@
       <c r="B12" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -2091,16 +2079,16 @@
       <c r="B14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="78" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="C14" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -2109,16 +2097,16 @@
       <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="C15" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -2127,16 +2115,16 @@
       <c r="B16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
+      <c r="C16" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -2145,32 +2133,32 @@
       <c r="B17" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -2179,16 +2167,16 @@
       <c r="B19" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -2197,16 +2185,16 @@
       <c r="B20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -2233,32 +2221,19 @@
       <c r="B22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -2269,6 +2244,19 @@
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="B9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -2302,92 +2290,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="98" t="str">
         <f>'Basic Design'!A1</f>
         <v>ProjectID</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="99"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="98" t="str">
         <f>'Basic Design'!D1</f>
         <v>kotoba-api</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="str">
+      <c r="A2" s="98" t="str">
         <f>'Basic Design'!A2</f>
         <v>Project Name</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="90" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="98" t="str">
         <f>'Basic Design'!D2</f>
         <v>Japan Kotoba</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="str">
+      <c r="A3" s="98" t="str">
         <f>'Basic Design'!A3</f>
         <v>Start Date</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="110">
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="112">
         <f>'Basic Design'!D3</f>
         <v>42864</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="str">
+      <c r="A4" s="98" t="str">
         <f>'Basic Design'!A4</f>
         <v>Owner</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="107" t="str">
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="109" t="str">
         <f>'Basic Design'!D4</f>
         <v>KaungYeeHein@gmail.com</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="109"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
@@ -2402,7 +2390,7 @@
         <v>109</v>
       </c>
       <c r="F7" s="106" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G7" s="106"/>
       <c r="H7" s="106"/>
@@ -2412,212 +2400,212 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="101" t="str">
+      <c r="B8" s="81"/>
+      <c r="C8" s="87" t="str">
         <f>C$6</f>
         <v>/kotaba</v>
       </c>
-      <c r="D8" s="80"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
+      <c r="F8" s="103" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
       <c r="J8" s="28">
         <f>A37</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="101" t="str">
+      <c r="B9" s="81"/>
+      <c r="C9" s="87" t="str">
         <f>C$6</f>
         <v>/kotaba</v>
       </c>
-      <c r="D9" s="80"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
+      <c r="F9" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
       <c r="J9" s="28">
         <f>A76</f>
         <v>2.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="101" t="str">
+      <c r="B10" s="81"/>
+      <c r="C10" s="87" t="str">
         <f>C$6</f>
         <v>/kotaba</v>
       </c>
-      <c r="D10" s="80"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="100" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
+      <c r="F10" s="103" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="29">
         <f>A42</f>
         <v>3.1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="87" t="str">
+      <c r="A11" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="89"/>
+      <c r="C11" s="88" t="str">
         <f>C$6</f>
         <v>/kotaba</v>
       </c>
-      <c r="D11" s="88"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
+        <v>200</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="73" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="87" t="str">
+      <c r="B12" s="89"/>
+      <c r="C12" s="88" t="str">
         <f>C$6</f>
         <v>/kotaba</v>
       </c>
-      <c r="D12" s="88"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>213</v>
-      </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
+        <v>200</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="73" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="87" t="str">
+      <c r="B13" s="89"/>
+      <c r="C13" s="88" t="str">
         <f>C$6&amp;"/{id}"</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="D13" s="88"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="F13" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+        <v>200</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="73" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="87" t="str">
+      <c r="B14" s="89"/>
+      <c r="C14" s="88" t="str">
         <f>C$6&amp;"/{id}"</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="D14" s="88"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
+        <v>200</v>
+      </c>
+      <c r="F14" s="90" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="73" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="101" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="101" t="str">
+      <c r="A15" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="87" t="str">
         <f>C$6&amp;"/{id}"</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
+      <c r="F15" s="103" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
       <c r="J15" s="29">
         <f>A46</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="101" t="str">
+      <c r="B16" s="81"/>
+      <c r="C16" s="87" t="str">
         <f>C$6&amp;"/{id}"</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="D16" s="80"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="99" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
+      <c r="F16" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
       <c r="J16" s="29">
         <f>A51</f>
         <v>3.3</v>
@@ -2627,20 +2615,20 @@
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="104" t="s">
@@ -2655,7 +2643,7 @@
         <v>109</v>
       </c>
       <c r="F19" s="106" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G19" s="106"/>
       <c r="H19" s="106"/>
@@ -2665,208 +2653,208 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="101" t="str">
+      <c r="B20" s="81"/>
+      <c r="C20" s="87" t="str">
         <f>C$18</f>
         <v>/user</v>
       </c>
-      <c r="D20" s="80"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
+      <c r="F20" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
       <c r="J20" s="28">
         <f>A66</f>
         <v>4.3</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="101" t="str">
+      <c r="B21" s="81"/>
+      <c r="C21" s="87" t="str">
         <f>C$18</f>
         <v>/user</v>
       </c>
-      <c r="D21" s="80"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="100" t="s">
-        <v>237</v>
-      </c>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
+      <c r="F21" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
       <c r="J21" s="29">
         <f>A58</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="87" t="str">
+      <c r="A22" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="88" t="str">
         <f>C$18</f>
         <v>/user</v>
       </c>
-      <c r="D22" s="88"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="F22" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
       <c r="J22" s="73" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="87" t="str">
+      <c r="B23" s="89"/>
+      <c r="C23" s="88" t="str">
         <f>C$18</f>
         <v>/user</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
+        <v>200</v>
+      </c>
+      <c r="F23" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
       <c r="J23" s="73" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="78" t="str">
+      <c r="B24" s="84"/>
+      <c r="C24" s="79" t="str">
         <f>C$18&amp;"/{id}"</f>
         <v>/user/{id}</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="114" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
+      <c r="F24" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
       <c r="J24" s="75">
         <f>A62</f>
         <v>4.2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="87" t="str">
+      <c r="B25" s="89"/>
+      <c r="C25" s="88" t="str">
         <f>C$18&amp;"/{id}"</f>
         <v>/user/{id}</v>
       </c>
-      <c r="D25" s="88"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
+        <v>200</v>
+      </c>
+      <c r="F25" s="90" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
       <c r="J25" s="73" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="87" t="str">
+      <c r="A26" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="89"/>
+      <c r="C26" s="88" t="str">
         <f>C$18&amp;"/{id}"</f>
         <v>/user/{id}</v>
       </c>
-      <c r="D26" s="88"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="F26" s="86" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
+        <v>200</v>
+      </c>
+      <c r="F26" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
       <c r="J26" s="73" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="101" t="str">
+      <c r="B27" s="81"/>
+      <c r="C27" s="87" t="str">
         <f>C$18&amp;"/{id}"</f>
         <v>/user/{id}</v>
       </c>
-      <c r="D27" s="80"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="100" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
+      <c r="F27" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
       <c r="J27" s="28">
         <f>A69</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="104" t="s">
@@ -2881,7 +2869,7 @@
         <v>109</v>
       </c>
       <c r="F30" s="106" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G30" s="106"/>
       <c r="H30" s="106"/>
@@ -2891,70 +2879,70 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="101" t="str">
+      <c r="B31" s="81"/>
+      <c r="C31" s="87" t="str">
         <f>C$29&amp;"/version"</f>
         <v>/sys/version</v>
       </c>
-      <c r="D31" s="80"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="99" t="s">
+      <c r="F31" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
       <c r="J31" s="29">
         <f>A79</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="101" t="str">
+      <c r="B32" s="81"/>
+      <c r="C32" s="87" t="str">
         <f>C$29&amp;"/dataset"</f>
         <v>/sys/dataset</v>
       </c>
-      <c r="D32" s="80"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="99" t="s">
+      <c r="F32" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
       <c r="J32" s="29">
         <f>A83</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="101" t="str">
+      <c r="B33" s="81"/>
+      <c r="C33" s="87" t="str">
         <f>C$29&amp;"/publish"</f>
         <v>/sys/publish</v>
       </c>
-      <c r="D33" s="80"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
       <c r="J33" s="29">
         <f>A88</f>
         <v>3.4</v>
@@ -2973,350 +2961,350 @@
       <c r="J34" s="71"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="78" t="s">
+      <c r="B35" s="108"/>
+      <c r="C35" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="85"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="84"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f>'Basic Design'!A7</f>
         <v>1</v>
       </c>
-      <c r="B36" s="90" t="str">
+      <c r="B36" s="98" t="str">
         <f>'Basic Design'!B7</f>
         <v>Everyone can request both Myanmar, Japanese and English language one by one.</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="92"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="93">
+      <c r="A37" s="92">
         <f>'Basic Design'!A8</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="90" t="str">
+      <c r="B37" s="93"/>
+      <c r="C37" s="98" t="str">
         <f>'Basic Design'!C8</f>
         <v>Request with Myanmar (unicode) or Japanese or English words</v>
       </c>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="92"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="100"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
-      <c r="B38" s="96"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="6"/>
       <c r="D38" s="9" t="str">
         <f>A8</f>
         <v>GET</v>
       </c>
-      <c r="E38" s="78" t="str">
+      <c r="E38" s="79" t="str">
         <f>C8</f>
         <v>/kotaba</v>
       </c>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="85"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="84"/>
     </row>
     <row r="39" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
-      <c r="B39" s="96"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="6"/>
       <c r="D39" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="89" t="str">
+      <c r="E39" s="101" t="str">
         <f>F8</f>
         <v>* Get kotoba list by query
 q=xxx
 by=kana|romaji|kanji|mm|en</v>
       </c>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="85"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="84"/>
     </row>
     <row r="40" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="6"/>
       <c r="D40" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="85"/>
+      <c r="E40" s="101" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="84"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f>'Basic Design'!A13</f>
         <v>3</v>
       </c>
-      <c r="B41" s="90" t="str">
+      <c r="B41" s="98" t="str">
         <f>'Basic Design'!$B$13</f>
         <v>Admin user can update data set.</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="92"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="100"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="93">
+      <c r="A42" s="92">
         <f>'Basic Design'!A14</f>
         <v>3.1</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="90" t="str">
+      <c r="B42" s="93"/>
+      <c r="C42" s="98" t="str">
         <f>'Basic Design'!C14</f>
         <v>Register a new word</v>
       </c>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="92"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="100"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
-      <c r="B43" s="96"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="6"/>
       <c r="D43" s="9" t="str">
         <f>A10</f>
         <v>POST</v>
       </c>
-      <c r="E43" s="78" t="str">
+      <c r="E43" s="79" t="str">
         <f>C10</f>
         <v>/kotaba</v>
       </c>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="85"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="84"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
-      <c r="B44" s="96"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="95"/>
       <c r="C44" s="6"/>
       <c r="D44" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="85"/>
+      <c r="E44" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="84"/>
     </row>
     <row r="45" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
-      <c r="B45" s="98"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="6"/>
       <c r="D45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="89" t="s">
+      <c r="E45" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="85"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="84"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="93">
+      <c r="A46" s="92">
         <f>'Basic Design'!A15</f>
         <v>3.2</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="90" t="str">
+      <c r="B46" s="93"/>
+      <c r="C46" s="98" t="str">
         <f>'Basic Design'!C15</f>
         <v>Update a word</v>
       </c>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="92"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="100"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="96"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="6"/>
       <c r="D47" s="9" t="str">
         <f>A15</f>
         <v>PUT</v>
       </c>
-      <c r="E47" s="78" t="str">
+      <c r="E47" s="79" t="str">
         <f>C15</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="85"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="84"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="96"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="95"/>
       <c r="C48" s="6"/>
       <c r="D48" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="89" t="str">
+      <c r="E48" s="101" t="str">
         <f>F15</f>
         <v>* Update a kotoba by id
 {kotoba_obj}</v>
       </c>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="85"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="84"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="96"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="95"/>
       <c r="C49" s="6"/>
       <c r="D49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="85"/>
+      <c r="E49" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="84"/>
     </row>
     <row r="50" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
-      <c r="B50" s="98"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="97"/>
       <c r="C50" s="6"/>
       <c r="D50" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="89" t="s">
+      <c r="E50" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="85"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="84"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="93">
+      <c r="A51" s="92">
         <f>'Basic Design'!A16</f>
         <v>3.3</v>
       </c>
-      <c r="B51" s="94"/>
-      <c r="C51" s="90" t="str">
+      <c r="B51" s="93"/>
+      <c r="C51" s="98" t="str">
         <f>'Basic Design'!C16</f>
         <v>Remove a word</v>
       </c>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="92"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="100"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="95"/>
-      <c r="B52" s="96"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="95"/>
       <c r="C52" s="6"/>
       <c r="D52" s="9" t="str">
         <f>A16</f>
         <v>DELETE</v>
       </c>
-      <c r="E52" s="114" t="str">
+      <c r="E52" s="102" t="str">
         <f>C16</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="114"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
-      <c r="B53" s="96"/>
+      <c r="A53" s="94"/>
+      <c r="B53" s="95"/>
       <c r="C53" s="6"/>
       <c r="D53" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="89" t="str">
+      <c r="E53" s="101" t="str">
         <f>F16</f>
         <v>* Delete a kotoba by id</v>
       </c>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="85"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="84"/>
     </row>
     <row r="54" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="97"/>
-      <c r="B54" s="98"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="97"/>
       <c r="C54" s="6"/>
       <c r="D54" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="89" t="s">
+      <c r="E54" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="85"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="84"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -3331,146 +3319,146 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="115" t="s">
+      <c r="A56" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="116"/>
-      <c r="C56" s="114" t="s">
+      <c r="B56" s="108"/>
+      <c r="C56" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="114"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <f>'Basic Design'!A18</f>
         <v>4</v>
       </c>
-      <c r="B57" s="90" t="str">
+      <c r="B57" s="98" t="str">
         <f>'Basic Design'!$B$18</f>
         <v>User registration.</v>
       </c>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="92"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="100"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="93">
+      <c r="A58" s="92">
         <f>'Basic Design'!A19</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="B58" s="94"/>
-      <c r="C58" s="90" t="str">
+      <c r="B58" s="93"/>
+      <c r="C58" s="98" t="str">
         <f>'Basic Design'!C19</f>
         <v>Everyone can register with email</v>
       </c>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="92"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="100"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="96"/>
+      <c r="A59" s="94"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="6"/>
       <c r="D59" s="9" t="str">
         <f>A21</f>
         <v>POST</v>
       </c>
-      <c r="E59" s="78" t="str">
+      <c r="E59" s="79" t="str">
         <f>C21</f>
         <v>/user</v>
       </c>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="85"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="84"/>
     </row>
     <row r="60" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
-      <c r="B60" s="96"/>
+      <c r="A60" s="94"/>
+      <c r="B60" s="95"/>
       <c r="C60" s="6"/>
       <c r="D60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="89" t="s">
+      <c r="E60" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="85"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="84"/>
     </row>
     <row r="61" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="97"/>
-      <c r="B61" s="98"/>
+      <c r="A61" s="96"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="6"/>
       <c r="D61" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="89" t="s">
+      <c r="E61" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="85"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="84"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="93">
+      <c r="A62" s="92">
         <f>'Basic Design'!A20</f>
         <v>4.2</v>
       </c>
-      <c r="B62" s="94"/>
-      <c r="C62" s="90" t="str">
+      <c r="B62" s="93"/>
+      <c r="C62" s="98" t="str">
         <f>'Basic Design'!C20</f>
         <v>Registered user can request token</v>
       </c>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="92"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="100"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="95"/>
-      <c r="B63" s="96"/>
+      <c r="A63" s="94"/>
+      <c r="B63" s="95"/>
       <c r="C63" s="6"/>
       <c r="D63" s="9" t="str">
         <f>A24</f>
         <v>GET</v>
       </c>
-      <c r="E63" s="78" t="str">
+      <c r="E63" s="79" t="str">
         <f>C24</f>
         <v>/user/{id}</v>
       </c>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="85"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="84"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
-      <c r="B64" s="96"/>
+      <c r="A64" s="94"/>
+      <c r="B64" s="95"/>
       <c r="C64" s="6"/>
       <c r="D64" s="9" t="s">
         <v>66</v>
@@ -3486,112 +3474,112 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="97"/>
-      <c r="B65" s="98"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="97"/>
       <c r="C65" s="6"/>
       <c r="D65" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="89" t="s">
+      <c r="E65" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="85"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="84"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="93">
+      <c r="A66" s="92">
         <f>'Basic Design'!A21</f>
         <v>4.3</v>
       </c>
-      <c r="B66" s="94"/>
-      <c r="C66" s="90" t="str">
+      <c r="B66" s="93"/>
+      <c r="C66" s="98" t="str">
         <f>'Basic Design'!C21</f>
         <v>Admin can list all user</v>
       </c>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="92"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="100"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="95"/>
-      <c r="B67" s="96"/>
+      <c r="A67" s="94"/>
+      <c r="B67" s="95"/>
       <c r="C67" s="14"/>
       <c r="D67" s="18" t="str">
         <f>A20</f>
         <v>GET</v>
       </c>
-      <c r="E67" s="78" t="str">
+      <c r="E67" s="79" t="str">
         <f>C20</f>
         <v>/user</v>
       </c>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="85"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="84"/>
     </row>
     <row r="68" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="97"/>
-      <c r="B68" s="98"/>
+      <c r="A68" s="96"/>
+      <c r="B68" s="97"/>
       <c r="C68" s="14"/>
       <c r="D68" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="89" t="s">
+      <c r="E68" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="85"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="84"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="93">
+      <c r="A69" s="92">
         <f>'Basic Design'!A22</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="B69" s="94"/>
-      <c r="C69" s="90" t="str">
+      <c r="B69" s="93"/>
+      <c r="C69" s="98" t="str">
         <f>'Basic Design'!C22</f>
         <v>Admin can remove user</v>
       </c>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="92"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="99"/>
+      <c r="I69" s="99"/>
+      <c r="J69" s="100"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="95"/>
-      <c r="B70" s="96"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="95"/>
       <c r="C70" s="6"/>
       <c r="D70" s="9" t="str">
         <f>A27</f>
         <v>DELETE</v>
       </c>
-      <c r="E70" s="78" t="str">
+      <c r="E70" s="79" t="str">
         <f>C27</f>
         <v>/user/{id}</v>
       </c>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="85"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="84"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="95"/>
-      <c r="B71" s="96"/>
+      <c r="A71" s="94"/>
+      <c r="B71" s="95"/>
       <c r="C71" s="6"/>
       <c r="D71" s="9" t="s">
         <v>66</v>
@@ -3607,20 +3595,20 @@
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="97"/>
-      <c r="B72" s="98"/>
+      <c r="A72" s="96"/>
+      <c r="B72" s="97"/>
       <c r="C72" s="6"/>
       <c r="D72" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="89" t="s">
+      <c r="E72" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="85"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="84"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
@@ -3635,83 +3623,83 @@
       <c r="J73" s="39"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="115" t="s">
+      <c r="A74" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="116"/>
-      <c r="C74" s="114" t="s">
+      <c r="B74" s="108"/>
+      <c r="C74" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="D74" s="114"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="114"/>
-      <c r="H74" s="114"/>
-      <c r="I74" s="114"/>
-      <c r="J74" s="114"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="102"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <f>'Basic Design'!A9</f>
         <v>2</v>
       </c>
-      <c r="B75" s="90" t="str">
+      <c r="B75" s="98" t="str">
         <f>'Basic Design'!$B$9</f>
         <v>Registered user can request the whole kotoba set.</v>
       </c>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="91"/>
-      <c r="F75" s="91"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="91"/>
-      <c r="J75" s="92"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="100"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="93">
+      <c r="A76" s="92">
         <f>'Basic Design'!A10</f>
         <v>2.1</v>
       </c>
-      <c r="B76" s="94"/>
-      <c r="C76" s="90" t="str">
+      <c r="B76" s="93"/>
+      <c r="C76" s="98" t="str">
         <f>'Basic Design'!C10</f>
         <v>Request with advance search</v>
       </c>
-      <c r="D76" s="91"/>
-      <c r="E76" s="91"/>
-      <c r="F76" s="91"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="91"/>
-      <c r="I76" s="91"/>
-      <c r="J76" s="92"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="100"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="95"/>
-      <c r="B77" s="96"/>
+      <c r="A77" s="94"/>
+      <c r="B77" s="95"/>
       <c r="C77" s="14"/>
       <c r="D77" s="18" t="str">
         <f>A9</f>
         <v>GET</v>
       </c>
-      <c r="E77" s="78" t="str">
+      <c r="E77" s="79" t="str">
         <f>C9</f>
         <v>/kotaba</v>
       </c>
-      <c r="F77" s="84"/>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="84"/>
-      <c r="J77" s="85"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="84"/>
     </row>
     <row r="78" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="97"/>
-      <c r="B78" s="98"/>
+      <c r="A78" s="96"/>
+      <c r="B78" s="97"/>
       <c r="C78" s="14"/>
       <c r="D78" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E78" s="89" t="str">
+      <c r="E78" s="101" t="str">
         <f>F9</f>
         <v>* Get kotoba list by other
 level=1|2|3|4|5
@@ -3719,219 +3707,219 @@
 type=i-adj|na-adj|n|v1|v2|v3…
 token=xxxxx</v>
       </c>
-      <c r="F78" s="102"/>
-      <c r="G78" s="102"/>
-      <c r="H78" s="102"/>
-      <c r="I78" s="102"/>
-      <c r="J78" s="103"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="116"/>
+      <c r="H78" s="116"/>
+      <c r="I78" s="116"/>
+      <c r="J78" s="117"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="93">
+      <c r="A79" s="92">
         <f>'Basic Design'!A11</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="B79" s="94"/>
-      <c r="C79" s="90" t="str">
+      <c r="B79" s="93"/>
+      <c r="C79" s="98" t="str">
         <f>'Basic Design'!C11</f>
         <v>Request data set version with token</v>
       </c>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="92"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="100"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="95"/>
-      <c r="B80" s="96"/>
+      <c r="A80" s="94"/>
+      <c r="B80" s="95"/>
       <c r="C80" s="6"/>
       <c r="D80" s="9" t="str">
         <f>A31</f>
         <v>GET</v>
       </c>
-      <c r="E80" s="78" t="str">
+      <c r="E80" s="79" t="str">
         <f>C31</f>
         <v>/sys/version</v>
       </c>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="85"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="83"/>
+      <c r="J80" s="84"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="95"/>
-      <c r="B81" s="96"/>
+      <c r="A81" s="94"/>
+      <c r="B81" s="95"/>
       <c r="C81" s="6"/>
       <c r="D81" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E81" s="78" t="str">
+      <c r="E81" s="79" t="str">
         <f>F31</f>
         <v>token=xxxxx</v>
       </c>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="84"/>
-      <c r="J81" s="85"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="84"/>
     </row>
     <row r="82" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="97"/>
-      <c r="B82" s="98"/>
+      <c r="A82" s="96"/>
+      <c r="B82" s="97"/>
       <c r="C82" s="6"/>
       <c r="D82" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="89" t="s">
+      <c r="E82" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="85"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
+      <c r="I82" s="83"/>
+      <c r="J82" s="84"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="93">
+      <c r="A83" s="92">
         <f>'Basic Design'!A12</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="B83" s="94"/>
-      <c r="C83" s="90" t="str">
+      <c r="B83" s="93"/>
+      <c r="C83" s="98" t="str">
         <f>'Basic Design'!C12</f>
         <v>Request the whole data set with token</v>
       </c>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="92"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="99"/>
+      <c r="F83" s="99"/>
+      <c r="G83" s="99"/>
+      <c r="H83" s="99"/>
+      <c r="I83" s="99"/>
+      <c r="J83" s="100"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="95"/>
-      <c r="B84" s="96"/>
+      <c r="A84" s="94"/>
+      <c r="B84" s="95"/>
       <c r="C84" s="6"/>
       <c r="D84" s="9" t="str">
         <f>A32</f>
         <v>GET</v>
       </c>
-      <c r="E84" s="78" t="str">
+      <c r="E84" s="79" t="str">
         <f>C32</f>
         <v>/sys/dataset</v>
       </c>
-      <c r="F84" s="84"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="85"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="84"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="95"/>
-      <c r="B85" s="96"/>
+      <c r="A85" s="94"/>
+      <c r="B85" s="95"/>
       <c r="C85" s="6"/>
       <c r="D85" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E85" s="78" t="str">
+      <c r="E85" s="79" t="str">
         <f>F32</f>
         <v>token=xxxxx</v>
       </c>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="85"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="83"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="83"/>
+      <c r="J85" s="84"/>
     </row>
     <row r="86" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="97"/>
-      <c r="B86" s="98"/>
+      <c r="A86" s="96"/>
+      <c r="B86" s="97"/>
       <c r="C86" s="6"/>
       <c r="D86" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E86" s="89" t="s">
-        <v>232</v>
-      </c>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="85"/>
+      <c r="E86" s="101" t="s">
+        <v>222</v>
+      </c>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="83"/>
+      <c r="J86" s="84"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <f>'Basic Design'!A13</f>
         <v>3</v>
       </c>
-      <c r="B87" s="90" t="str">
+      <c r="B87" s="98" t="str">
         <f>'Basic Design'!$B$13</f>
         <v>Admin user can update data set.</v>
       </c>
-      <c r="C87" s="91"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="91"/>
-      <c r="I87" s="91"/>
-      <c r="J87" s="92"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="99"/>
+      <c r="H87" s="99"/>
+      <c r="I87" s="99"/>
+      <c r="J87" s="100"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="93">
+      <c r="A88" s="92">
         <f>'Basic Design'!A17</f>
         <v>3.4</v>
       </c>
-      <c r="B88" s="94"/>
-      <c r="C88" s="90" t="str">
+      <c r="B88" s="93"/>
+      <c r="C88" s="98" t="str">
         <f>'Basic Design'!$C$17</f>
         <v>Publish data set</v>
       </c>
-      <c r="D88" s="91"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="91"/>
-      <c r="H88" s="91"/>
-      <c r="I88" s="91"/>
-      <c r="J88" s="92"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="99"/>
+      <c r="H88" s="99"/>
+      <c r="I88" s="99"/>
+      <c r="J88" s="100"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="95"/>
-      <c r="B89" s="96"/>
+      <c r="A89" s="94"/>
+      <c r="B89" s="95"/>
       <c r="C89" s="6"/>
       <c r="D89" s="9" t="str">
         <f>A33</f>
         <v>GET</v>
       </c>
-      <c r="E89" s="78" t="str">
+      <c r="E89" s="79" t="str">
         <f>C33</f>
         <v>/sys/publish</v>
       </c>
-      <c r="F89" s="84"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
-      <c r="I89" s="84"/>
-      <c r="J89" s="85"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="84"/>
     </row>
     <row r="90" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="97"/>
-      <c r="B90" s="98"/>
+      <c r="A90" s="96"/>
+      <c r="B90" s="97"/>
       <c r="C90" s="6"/>
       <c r="D90" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E90" s="89" t="s">
+      <c r="E90" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F90" s="84"/>
-      <c r="G90" s="84"/>
-      <c r="H90" s="84"/>
-      <c r="I90" s="84"/>
-      <c r="J90" s="85"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="83"/>
+      <c r="J90" s="84"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
@@ -3944,75 +3932,75 @@
       <c r="D92" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="E92" s="113"/>
-      <c r="F92" s="113"/>
-      <c r="G92" s="113"/>
-      <c r="H92" s="113"/>
-      <c r="I92" s="113"/>
+      <c r="E92" s="115"/>
+      <c r="F92" s="115"/>
+      <c r="G92" s="115"/>
+      <c r="H92" s="115"/>
+      <c r="I92" s="115"/>
       <c r="J92" s="105"/>
     </row>
     <row r="93" spans="1:10" ht="276.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>1</v>
       </c>
-      <c r="B93" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="C93" s="99"/>
-      <c r="D93" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="E93" s="100"/>
-      <c r="F93" s="100"/>
-      <c r="G93" s="100"/>
-      <c r="H93" s="100"/>
-      <c r="I93" s="100"/>
-      <c r="J93" s="100"/>
+      <c r="B93" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="91"/>
+      <c r="D93" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="E93" s="103"/>
+      <c r="F93" s="103"/>
+      <c r="G93" s="103"/>
+      <c r="H93" s="103"/>
+      <c r="I93" s="103"/>
+      <c r="J93" s="103"/>
     </row>
     <row r="94" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="54">
         <v>2</v>
       </c>
-      <c r="B94" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="C94" s="99"/>
-      <c r="D94" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="E94" s="100"/>
-      <c r="F94" s="100"/>
-      <c r="G94" s="100"/>
-      <c r="H94" s="100"/>
-      <c r="I94" s="100"/>
-      <c r="J94" s="100"/>
+      <c r="B94" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="91"/>
+      <c r="D94" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="103"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="103"/>
+      <c r="H94" s="103"/>
+      <c r="I94" s="103"/>
+      <c r="J94" s="103"/>
     </row>
     <row r="95" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
         <v>3</v>
       </c>
-      <c r="B95" s="99" t="s">
+      <c r="B95" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="99"/>
-      <c r="D95" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="E95" s="100"/>
-      <c r="F95" s="100"/>
-      <c r="G95" s="100"/>
-      <c r="H95" s="100"/>
-      <c r="I95" s="100"/>
-      <c r="J95" s="100"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="E95" s="103"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="103"/>
+      <c r="H95" s="103"/>
+      <c r="I95" s="103"/>
+      <c r="J95" s="103"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="55" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -4029,18 +4017,18 @@
         <v>1</v>
       </c>
       <c r="B100" s="59" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C100" s="60"/>
       <c r="D100" s="60"/>
       <c r="E100" s="60"/>
       <c r="F100" s="61"/>
       <c r="G100" s="59" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H100" s="61"/>
       <c r="I100" s="59" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J100" s="61"/>
     </row>
@@ -4049,18 +4037,18 @@
         <v>2</v>
       </c>
       <c r="B101" s="62" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C101" s="63"/>
       <c r="D101" s="63"/>
       <c r="E101" s="63"/>
       <c r="F101" s="64"/>
       <c r="G101" s="62" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H101" s="64"/>
       <c r="I101" s="62" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J101" s="64"/>
     </row>
@@ -4069,18 +4057,18 @@
         <v>3</v>
       </c>
       <c r="B102" s="62" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C102" s="63"/>
       <c r="D102" s="63"/>
       <c r="E102" s="63"/>
       <c r="F102" s="64"/>
       <c r="G102" s="62" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H102" s="64"/>
       <c r="I102" s="62" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J102" s="64"/>
     </row>
@@ -4089,18 +4077,18 @@
         <v>4</v>
       </c>
       <c r="B103" s="62" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C103" s="63"/>
       <c r="D103" s="63"/>
       <c r="E103" s="63"/>
       <c r="F103" s="64"/>
       <c r="G103" s="62" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H103" s="64"/>
       <c r="I103" s="62" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J103" s="64"/>
     </row>
@@ -4109,18 +4097,18 @@
         <v>5</v>
       </c>
       <c r="B104" s="62" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
       <c r="E104" s="63"/>
       <c r="F104" s="64"/>
       <c r="G104" s="62" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H104" s="64"/>
       <c r="I104" s="62" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J104" s="64"/>
     </row>
@@ -4129,18 +4117,18 @@
         <v>6</v>
       </c>
       <c r="B105" s="62" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C105" s="63"/>
       <c r="D105" s="63"/>
       <c r="E105" s="63"/>
       <c r="F105" s="64"/>
       <c r="G105" s="62" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H105" s="64"/>
       <c r="I105" s="62" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J105" s="64"/>
     </row>
@@ -4149,18 +4137,18 @@
         <v>7</v>
       </c>
       <c r="B106" s="62" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C106" s="63"/>
       <c r="D106" s="63"/>
       <c r="E106" s="63"/>
       <c r="F106" s="64"/>
       <c r="G106" s="62" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H106" s="64"/>
       <c r="I106" s="62" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="J106" s="64"/>
     </row>
@@ -4169,18 +4157,18 @@
         <v>8</v>
       </c>
       <c r="B107" s="62" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C107" s="63"/>
       <c r="D107" s="63"/>
       <c r="E107" s="63"/>
       <c r="F107" s="64"/>
       <c r="G107" s="62" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H107" s="64"/>
       <c r="I107" s="62" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J107" s="64"/>
     </row>
@@ -4189,24 +4177,24 @@
         <v>9</v>
       </c>
       <c r="B108" s="65" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C108" s="66"/>
       <c r="D108" s="66"/>
       <c r="E108" s="66"/>
       <c r="F108" s="67"/>
       <c r="G108" s="65" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H108" s="67"/>
       <c r="I108" s="65" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J108" s="67"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="55" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -4223,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="59" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C111" s="60"/>
       <c r="D111" s="60"/>
@@ -4241,14 +4229,14 @@
         <v>2</v>
       </c>
       <c r="B112" s="62" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C112" s="63"/>
       <c r="D112" s="63"/>
       <c r="E112" s="63"/>
       <c r="F112" s="64"/>
       <c r="G112" s="62" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H112" s="63"/>
       <c r="I112" s="63"/>
@@ -4259,14 +4247,14 @@
         <v>3</v>
       </c>
       <c r="B113" s="62" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C113" s="63"/>
       <c r="D113" s="63"/>
       <c r="E113" s="63"/>
       <c r="F113" s="64"/>
       <c r="G113" s="62" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H113" s="63"/>
       <c r="I113" s="63"/>
@@ -4277,14 +4265,14 @@
         <v>4</v>
       </c>
       <c r="B114" s="62" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C114" s="63"/>
       <c r="D114" s="63"/>
       <c r="E114" s="63"/>
       <c r="F114" s="64"/>
       <c r="G114" s="62" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H114" s="63"/>
       <c r="I114" s="63"/>
@@ -4295,14 +4283,14 @@
         <v>5</v>
       </c>
       <c r="B115" s="62" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C115" s="63"/>
       <c r="D115" s="63"/>
       <c r="E115" s="63"/>
       <c r="F115" s="64"/>
       <c r="G115" s="62" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H115" s="63"/>
       <c r="I115" s="63"/>
@@ -4313,14 +4301,14 @@
         <v>6</v>
       </c>
       <c r="B116" s="62" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C116" s="63"/>
       <c r="D116" s="63"/>
       <c r="E116" s="63"/>
       <c r="F116" s="64"/>
       <c r="G116" s="62" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H116" s="63"/>
       <c r="I116" s="63"/>
@@ -4331,14 +4319,14 @@
         <v>7</v>
       </c>
       <c r="B117" s="62" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C117" s="63"/>
       <c r="D117" s="63"/>
       <c r="E117" s="63"/>
       <c r="F117" s="64"/>
       <c r="G117" s="62" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H117" s="63"/>
       <c r="I117" s="63"/>
@@ -4349,14 +4337,14 @@
         <v>8</v>
       </c>
       <c r="B118" s="62" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C118" s="63"/>
       <c r="D118" s="63"/>
       <c r="E118" s="63"/>
       <c r="F118" s="64"/>
       <c r="G118" s="62" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H118" s="63"/>
       <c r="I118" s="63"/>
@@ -4367,7 +4355,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="65" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C119" s="66"/>
       <c r="D119" s="66"/>
@@ -4382,28 +4370,117 @@
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E90:J90"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="A88:B90"/>
+    <mergeCell ref="A58:B61"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="E85:J85"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:J94"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="E86:J86"/>
+    <mergeCell ref="A62:B65"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="E89:J89"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A69:B72"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="A42:B45"/>
+    <mergeCell ref="A46:B50"/>
+    <mergeCell ref="A51:B54"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D93:J93"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D92:J92"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:J95"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A37:B40"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="A18:B18"/>
@@ -4428,118 +4505,29 @@
     <mergeCell ref="E52:J52"/>
     <mergeCell ref="E54:J54"/>
     <mergeCell ref="C56:J56"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:J95"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A37:B40"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D93:J93"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D92:J92"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B75:J75"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A69:B72"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="A42:B45"/>
-    <mergeCell ref="A46:B50"/>
-    <mergeCell ref="A51:B54"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:J94"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="E86:J86"/>
-    <mergeCell ref="A62:B65"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="E89:J89"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E90:J90"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="A88:B90"/>
-    <mergeCell ref="A58:B61"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="E85:J85"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:I26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="KaungYeeHein@gmail.com"/>
@@ -4584,92 +4572,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="98" t="str">
         <f>'Basic Design'!A1</f>
         <v>ProjectID</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="99"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="98" t="str">
         <f>'Basic Design'!D1</f>
         <v>kotoba-api</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="str">
+      <c r="A2" s="98" t="str">
         <f>'Basic Design'!A2</f>
         <v>Project Name</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="90" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="98" t="str">
         <f>'Basic Design'!D2</f>
         <v>Japan Kotoba</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="str">
+      <c r="A3" s="98" t="str">
         <f>'Basic Design'!A3</f>
         <v>Start Date</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="110">
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="112">
         <f>'Basic Design'!D3</f>
         <v>42864</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="str">
+      <c r="A4" s="98" t="str">
         <f>'Basic Design'!A4</f>
         <v>Owner</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="107" t="str">
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="109" t="str">
         <f>'Basic Design'!D4</f>
         <v>KaungYeeHein@gmail.com</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="109"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="128" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="128" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
+      <c r="A5" s="118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -4694,7 +4682,7 @@
         <f>$D$5&amp;"_kotoba_jp"</f>
         <v>ktb_kotoba_jp</v>
       </c>
-      <c r="J7" s="127" t="str">
+      <c r="J7" s="78" t="str">
         <f>$D$5&amp;"_jp"</f>
         <v>ktb_jp</v>
       </c>
@@ -4719,12 +4707,12 @@
         <v>52</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H8" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="113"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="105"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4746,13 +4734,13 @@
       </c>
       <c r="F9" s="76"/>
       <c r="G9" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="117" t="s">
-        <v>244</v>
-      </c>
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
+        <v>135</v>
+      </c>
+      <c r="H9" s="121" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
@@ -4775,13 +4763,13 @@
         <v>45</v>
       </c>
       <c r="G10" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="H10" s="117" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="118"/>
-      <c r="J10" s="119"/>
+        <v>228</v>
+      </c>
+      <c r="H10" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
@@ -4804,11 +4792,11 @@
         <v>100</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="119"/>
+        <v>229</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="123"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -4831,13 +4819,13 @@
         <v>45</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="117" t="s">
-        <v>245</v>
-      </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="119"/>
+        <v>230</v>
+      </c>
+      <c r="H12" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
@@ -4858,13 +4846,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="118"/>
-      <c r="J13" s="119"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="123"/>
     </row>
     <row r="14" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
@@ -4885,13 +4873,13 @@
         <v>3</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="H14" s="117" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="118"/>
-      <c r="J14" s="119"/>
+        <v>236</v>
+      </c>
+      <c r="H14" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
@@ -4912,13 +4900,13 @@
         <v>10</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="H15" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="123"/>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
@@ -4939,13 +4927,13 @@
         <v>255</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="117" t="s">
-        <v>245</v>
-      </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="119"/>
+        <v>139</v>
+      </c>
+      <c r="H16" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
@@ -4960,15 +4948,15 @@
         <v>38</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F17" s="76"/>
       <c r="G17" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="117"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="119"/>
+        <v>140</v>
+      </c>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="123"/>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
@@ -4983,15 +4971,15 @@
         <v>38</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F18" s="76"/>
       <c r="G18" s="77" t="s">
-        <v>249</v>
-      </c>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="119"/>
+        <v>239</v>
+      </c>
+      <c r="H18" s="121"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
     </row>
     <row r="19" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
@@ -5012,13 +5000,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>248</v>
-      </c>
-      <c r="H19" s="117" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="118"/>
-      <c r="J19" s="119"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -5031,7 +5019,7 @@
         <f>$D$5&amp;"_kotoba_mm"</f>
         <v>ktb_kotoba_mm</v>
       </c>
-      <c r="J21" s="127" t="str">
+      <c r="J21" s="78" t="str">
         <f>$D$5&amp;"_mm"</f>
         <v>ktb_mm</v>
       </c>
@@ -5056,12 +5044,12 @@
         <v>52</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H22" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="113"/>
+      <c r="I22" s="115"/>
       <c r="J22" s="105"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -5069,7 +5057,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C23" s="76" t="str">
         <f>$J$21&amp;"_id"</f>
@@ -5083,14 +5071,14 @@
       </c>
       <c r="F23" s="76"/>
       <c r="G23" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="117" t="str">
+        <v>135</v>
+      </c>
+      <c r="H23" s="121" t="str">
         <f>"Ref: "&amp;$C$9</f>
         <v>Ref: ktb_jp_id</v>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="119"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="123"/>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
@@ -5113,13 +5101,13 @@
         <v>100</v>
       </c>
       <c r="G24" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="H24" s="117" t="s">
-        <v>245</v>
-      </c>
-      <c r="I24" s="118"/>
-      <c r="J24" s="119"/>
+        <v>229</v>
+      </c>
+      <c r="H24" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="I24" s="122"/>
+      <c r="J24" s="123"/>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
@@ -5140,13 +5128,13 @@
         <v>255</v>
       </c>
       <c r="G25" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="117" t="s">
-        <v>245</v>
-      </c>
-      <c r="I25" s="118"/>
-      <c r="J25" s="119"/>
+        <v>139</v>
+      </c>
+      <c r="H25" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="I25" s="122"/>
+      <c r="J25" s="123"/>
     </row>
     <row r="26" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
@@ -5167,13 +5155,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="77" t="s">
-        <v>248</v>
-      </c>
-      <c r="H26" s="117" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="118"/>
-      <c r="J26" s="119"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="123"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -5186,7 +5174,7 @@
         <f>$D$5&amp;"_kotoba_en"</f>
         <v>ktb_kotoba_en</v>
       </c>
-      <c r="J28" s="127" t="str">
+      <c r="J28" s="78" t="str">
         <f>$D$5&amp;"_en"</f>
         <v>ktb_en</v>
       </c>
@@ -5211,12 +5199,12 @@
         <v>52</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H29" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="113"/>
+      <c r="I29" s="115"/>
       <c r="J29" s="105"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5224,7 +5212,7 @@
         <v>61</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C30" s="76" t="str">
         <f>$J$28&amp;"_id"</f>
@@ -5238,14 +5226,14 @@
       </c>
       <c r="F30" s="76"/>
       <c r="G30" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" s="117" t="str">
+        <v>135</v>
+      </c>
+      <c r="H30" s="121" t="str">
         <f>"Ref: "&amp;$C$9</f>
         <v>Ref: ktb_jp_id</v>
       </c>
-      <c r="I30" s="118"/>
-      <c r="J30" s="119"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="123"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
@@ -5268,13 +5256,13 @@
         <v>100</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="H31" s="117" t="s">
-        <v>245</v>
-      </c>
-      <c r="I31" s="118"/>
-      <c r="J31" s="119"/>
+        <v>229</v>
+      </c>
+      <c r="H31" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="I31" s="122"/>
+      <c r="J31" s="123"/>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="76" t="s">
@@ -5295,13 +5283,13 @@
         <v>255</v>
       </c>
       <c r="G32" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="117" t="s">
-        <v>245</v>
-      </c>
-      <c r="I32" s="118"/>
-      <c r="J32" s="119"/>
+        <v>139</v>
+      </c>
+      <c r="H32" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="I32" s="122"/>
+      <c r="J32" s="123"/>
     </row>
     <row r="33" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="76" t="s">
@@ -5322,13 +5310,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="77" t="s">
-        <v>248</v>
-      </c>
-      <c r="H33" s="117" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="118"/>
-      <c r="J33" s="119"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="123"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -5361,12 +5349,12 @@
         <v>52</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H36" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="113"/>
+      <c r="I36" s="115"/>
       <c r="J36" s="105"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -5377,7 +5365,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>23</v>
@@ -5387,11 +5375,11 @@
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H37" s="101"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="80"/>
+        <v>135</v>
+      </c>
+      <c r="H37" s="87"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="81"/>
     </row>
     <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
@@ -5413,11 +5401,11 @@
         <v>255</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="101"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="80"/>
+        <v>141</v>
+      </c>
+      <c r="H38" s="87"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="81"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
@@ -5437,11 +5425,11 @@
         <v>255</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H39" s="101"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="80"/>
+        <v>142</v>
+      </c>
+      <c r="H39" s="87"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="81"/>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
@@ -5461,11 +5449,11 @@
         <v>255</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H40" s="117"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="119"/>
+        <v>142</v>
+      </c>
+      <c r="H40" s="121"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="123"/>
     </row>
     <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
@@ -5485,11 +5473,11 @@
         <v>255</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" s="101"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="80"/>
+        <v>142</v>
+      </c>
+      <c r="H41" s="87"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="81"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
@@ -5507,7 +5495,7 @@
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="26" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="12"/>
@@ -5529,13 +5517,13 @@
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="H43" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="118"/>
-      <c r="J43" s="119"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="123"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
@@ -5555,13 +5543,13 @@
         <v>1</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H44" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="118"/>
-      <c r="J44" s="119"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="123"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -5594,12 +5582,12 @@
         <v>52</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H47" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="113"/>
+      <c r="I47" s="115"/>
       <c r="J47" s="105"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5610,7 +5598,7 @@
         <v>57</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>23</v>
@@ -5620,11 +5608,11 @@
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H48" s="101"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="80"/>
+        <v>135</v>
+      </c>
+      <c r="H48" s="87"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="81"/>
     </row>
     <row r="49" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
@@ -5646,13 +5634,13 @@
         <v>20</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H49" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="I49" s="79"/>
-      <c r="J49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="81"/>
     </row>
     <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
@@ -5672,11 +5660,11 @@
         <v>50</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H50" s="101"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="80"/>
+        <v>136</v>
+      </c>
+      <c r="H50" s="87"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="81"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
@@ -5696,38 +5684,23 @@
         <v>1</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H51" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="I51" s="118"/>
-      <c r="J51" s="119"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="H31:J31"/>
     <mergeCell ref="H32:J32"/>
@@ -5744,13 +5717,28 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H33:J33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="KaungYeeHein@gmail.com"/>
@@ -5769,10 +5757,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5787,94 +5775,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="98" t="str">
         <f>'Basic Design'!A1</f>
         <v>ProjectID</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="99"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="98" t="str">
         <f>'Basic Design'!D1</f>
         <v>kotoba-api</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="str">
+      <c r="A2" s="98" t="str">
         <f>'Basic Design'!A2</f>
         <v>Project Name</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="90" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="98" t="str">
         <f>'Basic Design'!D2</f>
         <v>Japan Kotoba</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="str">
+      <c r="A3" s="98" t="str">
         <f>'Basic Design'!A3</f>
         <v>Start Date</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="110">
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="112">
         <f>'Basic Design'!D3</f>
         <v>42864</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="str">
+      <c r="A4" s="98" t="str">
         <f>'Basic Design'!A4</f>
         <v>Owner</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="107" t="str">
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="109" t="str">
         <f>'Basic Design'!D4</f>
         <v>KaungYeeHein@gmail.com</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="109"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="str">
+      <c r="A6" s="91" t="str">
         <f>'Detailed Design'!$A$35</f>
         <v>Version</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99" t="str">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91" t="str">
         <f>'Detailed Design'!$C$35</f>
         <v>0.1.0</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
@@ -5889,22 +5877,22 @@
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="str">
+      <c r="A8" s="91" t="str">
         <f>'Detailed Design'!$A$6</f>
         <v>Module:</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99" t="str">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91" t="str">
         <f>'Detailed Design'!$C$6</f>
         <v>/kotaba</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="104" t="s">
@@ -5929,45 +5917,45 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="str">
+      <c r="A10" s="87" t="str">
         <f>'Detailed Design'!A8</f>
         <v>GET</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="101" t="str">
+      <c r="B10" s="81"/>
+      <c r="C10" s="87" t="str">
         <f>'Detailed Design'!C8</f>
         <v>/kotaba</v>
       </c>
-      <c r="D10" s="80"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="20" t="str">
         <f>'Detailed Design'!E8</f>
         <v>public</v>
       </c>
-      <c r="F10" s="100" t="str">
+      <c r="F10" s="103" t="str">
         <f>'Detailed Design'!F8</f>
         <v>* Get kotoba list by query
 q=xxx
 by=kana|romaji|kanji|mm|en</v>
       </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="28">
         <f>'Detailed Design'!J8</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="str">
+      <c r="A11" s="87" t="str">
         <f>'Detailed Design'!A10</f>
         <v>POST</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="101" t="str">
+      <c r="B11" s="81"/>
+      <c r="C11" s="87" t="str">
         <f>'Detailed Design'!C10</f>
         <v>/kotaba</v>
       </c>
-      <c r="D11" s="80"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="21" t="str">
         <f>'Detailed Design'!E10</f>
         <v>admin</v>
@@ -5986,55 +5974,55 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="str">
+      <c r="A12" s="87" t="str">
         <f>'Detailed Design'!A15</f>
         <v>PUT</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="101" t="str">
+      <c r="B12" s="81"/>
+      <c r="C12" s="87" t="str">
         <f>'Detailed Design'!C15</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="21" t="str">
         <f>'Detailed Design'!E15</f>
         <v>admin</v>
       </c>
-      <c r="F12" s="100" t="str">
+      <c r="F12" s="103" t="str">
         <f>'Detailed Design'!F15</f>
         <v>* Update a kotoba by id
 {kotoba_obj}</v>
       </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
       <c r="J12" s="29">
         <f>'Detailed Design'!J15</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="101" t="str">
+      <c r="A13" s="87" t="str">
         <f>'Detailed Design'!A16</f>
         <v>DELETE</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="101" t="str">
+      <c r="B13" s="81"/>
+      <c r="C13" s="87" t="str">
         <f>'Detailed Design'!C16</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="D13" s="80"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="21" t="str">
         <f>'Detailed Design'!E16</f>
         <v>admin</v>
       </c>
-      <c r="F13" s="100" t="str">
+      <c r="F13" s="103" t="str">
         <f>'Detailed Design'!F16</f>
         <v>* Delete a kotoba by id</v>
       </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="29">
         <f>'Detailed Design'!J16</f>
         <v>3.3</v>
@@ -6044,124 +6032,124 @@
       <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="str">
+      <c r="A15" s="91" t="str">
         <f>'Detailed Design'!$A$35</f>
         <v>Version</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99" t="str">
+      <c r="B15" s="91"/>
+      <c r="C15" s="91" t="str">
         <f>'Detailed Design'!$C$35</f>
         <v>0.1.0</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <f>'Basic Design'!A7</f>
         <v>1</v>
       </c>
-      <c r="B16" s="90" t="str">
+      <c r="B16" s="98" t="str">
         <f>'Basic Design'!B7</f>
         <v>Everyone can request both Myanmar, Japanese and English language one by one.</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="81">
+      <c r="A17" s="82">
         <f>'Basic Design'!A8</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="90" t="str">
+      <c r="B17" s="82"/>
+      <c r="C17" s="98" t="str">
         <f>'Basic Design'!C8</f>
         <v>Request with Myanmar (unicode) or Japanese or English words</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="100"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="str">
         <f>'Detailed Design'!D38</f>
         <v>GET</v>
       </c>
-      <c r="E18" s="90" t="str">
+      <c r="E18" s="98" t="str">
         <f>'Detailed Design'!E38</f>
         <v>/kotaba</v>
       </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="92"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14" t="str">
         <f>'Detailed Design'!D39</f>
         <v>Parameter</v>
       </c>
-      <c r="E19" s="123" t="str">
+      <c r="E19" s="128" t="str">
         <f>'Detailed Design'!E39</f>
         <v>* Get kotoba list by query
 q=xxx
 by=kana|romaji|kanji|mm|en</v>
       </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="92"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
     </row>
     <row r="20" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="str">
         <f>'Detailed Design'!D40</f>
         <v>Response</v>
       </c>
-      <c r="E20" s="123" t="str">
+      <c r="E20" s="128" t="str">
         <f>'Detailed Design'!E40</f>
         <v>HttpStatus.OK|HttpStatus.NO_CONTENT
 [{kotoba_obj},{kotoba_obj}]</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="92"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="100"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
-      <c r="B21" s="126">
+      <c r="B21" s="129">
         <v>1</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="11" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
@@ -6172,8 +6160,8 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="125">
+      <c r="B22" s="129"/>
+      <c r="C22" s="127">
         <v>1.1000000000000001</v>
       </c>
       <c r="D22" s="45" t="s">
@@ -6188,10 +6176,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="125"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="127"/>
       <c r="D23" s="46" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
@@ -6202,9 +6190,11 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="46"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="46" t="s">
+        <v>246</v>
+      </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -6213,39 +6203,41 @@
       <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="125"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="127"/>
       <c r="D27" s="46" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -6255,55 +6247,57 @@
       <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="127" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="50"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="125"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
+        <v>243</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="125" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="46" t="s">
-        <v>139</v>
+      <c r="A31" s="49"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -6314,24 +6308,24 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="125"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="127"/>
       <c r="D32" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
+        <v>243</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="50"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="125"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="127"/>
       <c r="D33" s="46" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
@@ -6342,12 +6336,12 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="125" t="s">
-        <v>117</v>
+      <c r="B34" s="129"/>
+      <c r="C34" s="127" t="s">
+        <v>118</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -6358,10 +6352,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="125"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="46" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -6372,10 +6366,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="125"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="46" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
@@ -6386,10 +6380,12 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="46" t="s">
-        <v>151</v>
+      <c r="B37" s="129"/>
+      <c r="C37" s="124" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>127</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
@@ -6400,10 +6396,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
-      <c r="B38" s="126"/>
+      <c r="B38" s="129"/>
       <c r="C38" s="125"/>
       <c r="D38" s="46" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
@@ -6413,41 +6409,43 @@
       <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="125" t="s">
-        <v>118</v>
+      <c r="A39" s="50"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="124" t="s">
+        <v>133</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
+        <v>113</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="126"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="125"/>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="46" t="s">
-        <v>150</v>
+      <c r="A41" s="47"/>
+      <c r="B41" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="129"/>
+      <c r="D41" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
@@ -6457,11 +6455,11 @@
       <c r="J41" s="42"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="46" t="s">
-        <v>153</v>
+      <c r="A42" s="49"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="52" t="s">
+        <v>152</v>
       </c>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
@@ -6471,222 +6469,222 @@
       <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="120" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="42"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="42"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="120" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="42"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="42"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="125" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="126"/>
-      <c r="D48" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="42"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="42"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A44" s="14">
         <f>'Basic Design'!A13</f>
         <v>3</v>
       </c>
-      <c r="B51" s="81" t="str">
+      <c r="B44" s="82" t="str">
         <f>'Basic Design'!$B$13</f>
         <v>Admin user can update data set.</v>
       </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="81">
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="82">
         <f>'Basic Design'!A14</f>
         <v>3.1</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81" t="str">
+      <c r="B45" s="82"/>
+      <c r="C45" s="82" t="str">
         <f>'Basic Design'!C14</f>
         <v>Register a new word</v>
       </c>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14" t="str">
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14" t="str">
         <f>'Detailed Design'!D43</f>
         <v>POST</v>
       </c>
-      <c r="E53" s="81" t="str">
+      <c r="E46" s="82" t="str">
         <f>'Detailed Design'!E43</f>
         <v>/kotaba</v>
       </c>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14" t="str">
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="82"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14" t="str">
         <f>'Detailed Design'!D44</f>
         <v>Format</v>
       </c>
-      <c r="E54" s="124" t="str">
+      <c r="E47" s="130" t="str">
         <f>'Detailed Design'!E44</f>
         <v>{kotoba_obj}</v>
       </c>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-    </row>
-    <row r="55" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="81"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14" t="str">
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+    </row>
+    <row r="48" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="82"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14" t="str">
         <f>'Detailed Design'!D45</f>
         <v>Response</v>
       </c>
-      <c r="E55" s="124" t="str">
+      <c r="E48" s="130" t="str">
         <f>'Detailed Design'!E45</f>
         <v>{
   "result":"OK"|"NG",
   "message":"xxxxx"
 }</v>
       </c>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="47"/>
+      <c r="B49" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="124" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="47"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="47"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="47"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="47"/>
+      <c r="B55" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="124"/>
+      <c r="D55" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
-      <c r="B56" s="120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="15" t="s">
-        <v>234</v>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="15"/>
@@ -6696,101 +6694,119 @@
       <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="122"/>
-      <c r="C57" s="120" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
+      <c r="A58" s="92">
+        <f>'Basic Design'!A15</f>
+        <v>3.2</v>
+      </c>
+      <c r="B58" s="93"/>
+      <c r="C58" s="98" t="str">
+        <f>'Basic Design'!C15</f>
+        <v>Update a word</v>
+      </c>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="100"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="122"/>
-      <c r="C59" s="120" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="31"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
+      <c r="A59" s="94"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14" t="str">
+        <f>'Detailed Design'!D47</f>
+        <v>PUT</v>
+      </c>
+      <c r="E59" s="98" t="str">
+        <f>'Detailed Design'!E47</f>
+        <v>/kotaba/{id}</v>
+      </c>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="100"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="122"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
+      <c r="A60" s="94"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14" t="str">
+        <f>'Detailed Design'!D48</f>
+        <v>Parameter</v>
+      </c>
+      <c r="E60" s="128" t="str">
+        <f>'Detailed Design'!E48</f>
+        <v>* Update a kotoba by id
+{kotoba_obj}</v>
+      </c>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="100"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="120"/>
-      <c r="D62" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
+      <c r="A61" s="94"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14" t="str">
+        <f>'Detailed Design'!D49</f>
+        <v>Format</v>
+      </c>
+      <c r="E61" s="128" t="str">
+        <f>'Detailed Design'!E49</f>
+        <v>{kotoba_obj}</v>
+      </c>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="100"/>
+    </row>
+    <row r="62" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="96"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14" t="str">
+        <f>'Detailed Design'!D50</f>
+        <v>Response</v>
+      </c>
+      <c r="E62" s="128" t="str">
+        <f>'Detailed Design'!E50</f>
+        <v>{
+  "result":"OK"|"NG",
+  "message":"xxxxx"
+}</v>
+      </c>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="100"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="45" t="s">
-        <v>130</v>
+      <c r="B63" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="15"/>
@@ -6800,211 +6816,206 @@
       <c r="J63" s="16"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="31"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="93">
-        <f>'Basic Design'!A15</f>
-        <v>3.2</v>
-      </c>
-      <c r="B65" s="94"/>
-      <c r="C65" s="90" t="str">
-        <f>'Basic Design'!C15</f>
-        <v>Update a word</v>
-      </c>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="91"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="92"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="95"/>
-      <c r="B66" s="96"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14" t="str">
-        <f>'Detailed Design'!D47</f>
-        <v>PUT</v>
-      </c>
-      <c r="E66" s="90" t="str">
-        <f>'Detailed Design'!E47</f>
+      <c r="A66" s="48"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="25"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="31"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="126"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="31"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="48"/>
+      <c r="B69" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="124"/>
+      <c r="D69" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="31"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="25"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="48"/>
+      <c r="B70" s="126"/>
+      <c r="C70" s="126"/>
+      <c r="D70" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="31"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="25"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="98">
+        <f>'Basic Design'!A16</f>
+        <v>3.3</v>
+      </c>
+      <c r="B72" s="100"/>
+      <c r="C72" s="98" t="str">
+        <f>'Basic Design'!C16</f>
+        <v>Remove a word</v>
+      </c>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="99"/>
+      <c r="J72" s="100"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="98"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14" t="str">
+        <f>'Detailed Design'!D52</f>
+        <v>DELETE</v>
+      </c>
+      <c r="E73" s="82" t="str">
+        <f>'Detailed Design'!E52</f>
         <v>/kotaba/{id}</v>
       </c>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="92"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="95"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14" t="str">
-        <f>'Detailed Design'!D48</f>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
+      <c r="J73" s="82"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="98"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14" t="str">
+        <f>'Detailed Design'!D53</f>
         <v>Parameter</v>
       </c>
-      <c r="E67" s="123" t="str">
-        <f>'Detailed Design'!E48</f>
-        <v>* Update a kotoba by id
-{kotoba_obj}</v>
-      </c>
-      <c r="F67" s="91"/>
-      <c r="G67" s="91"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="92"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="95"/>
-      <c r="B68" s="96"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14" t="str">
-        <f>'Detailed Design'!D49</f>
-        <v>Format</v>
-      </c>
-      <c r="E68" s="123" t="str">
-        <f>'Detailed Design'!E49</f>
-        <v>{kotoba_obj}</v>
-      </c>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="92"/>
-    </row>
-    <row r="69" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="97"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14" t="str">
-        <f>'Detailed Design'!D50</f>
+      <c r="E74" s="128" t="str">
+        <f>'Detailed Design'!E53</f>
+        <v>* Delete a kotoba by id</v>
+      </c>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="100"/>
+    </row>
+    <row r="75" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="98"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14" t="str">
+        <f>'Detailed Design'!D54</f>
         <v>Response</v>
       </c>
-      <c r="E69" s="123" t="str">
-        <f>'Detailed Design'!E50</f>
+      <c r="E75" s="128" t="str">
+        <f>'Detailed Design'!E54</f>
         <v>{
   "result":"OK"|"NG",
   "message":"xxxxx"
 }</v>
       </c>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="92"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
-      <c r="B70" s="120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="122"/>
-      <c r="C71" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="122"/>
-      <c r="C72" s="120" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
-      <c r="B73" s="122"/>
-      <c r="C73" s="121"/>
-      <c r="D73" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="25"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="122"/>
-      <c r="C74" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" s="31"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="121"/>
-      <c r="C75" s="121"/>
-      <c r="D75" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="E75" s="31"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="100"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="48"/>
-      <c r="B76" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="120"/>
-      <c r="D76" s="24" t="s">
-        <v>113</v>
+      <c r="B76" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="48"/>
+      <c r="D76" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="E76" s="31"/>
       <c r="F76" s="24"/>
@@ -7015,10 +7026,12 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="48"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="48" t="s">
+        <v>131</v>
+      </c>
       <c r="D77" s="45" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E77" s="31"/>
       <c r="F77" s="24"/>
@@ -7028,100 +7041,87 @@
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="125"/>
+      <c r="C78" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="90">
-        <f>'Basic Design'!A16</f>
-        <v>3.3</v>
-      </c>
-      <c r="B79" s="92"/>
-      <c r="C79" s="90" t="str">
-        <f>'Basic Design'!C16</f>
-        <v>Remove a word</v>
-      </c>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="92"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="31"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="90"/>
-      <c r="B80" s="92"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14" t="str">
-        <f>'Detailed Design'!D52</f>
-        <v>DELETE</v>
-      </c>
-      <c r="E80" s="81" t="str">
-        <f>'Detailed Design'!E52</f>
-        <v>/kotaba/{id}</v>
-      </c>
-      <c r="F80" s="81"/>
-      <c r="G80" s="81"/>
-      <c r="H80" s="81"/>
-      <c r="I80" s="81"/>
-      <c r="J80" s="81"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="125"/>
+      <c r="C80" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="31"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="25"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="90"/>
-      <c r="B81" s="92"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14" t="str">
-        <f>'Detailed Design'!D53</f>
-        <v>Parameter</v>
-      </c>
-      <c r="E81" s="123" t="str">
-        <f>'Detailed Design'!E53</f>
-        <v>* Delete a kotoba by id</v>
-      </c>
-      <c r="F81" s="91"/>
-      <c r="G81" s="91"/>
-      <c r="H81" s="91"/>
-      <c r="I81" s="91"/>
-      <c r="J81" s="92"/>
-    </row>
-    <row r="82" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="90"/>
-      <c r="B82" s="92"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14" t="str">
-        <f>'Detailed Design'!D54</f>
-        <v>Response</v>
-      </c>
-      <c r="E82" s="123" t="str">
-        <f>'Detailed Design'!E54</f>
-        <v>{
-  "result":"OK"|"NG",
-  "message":"xxxxx"
-}</v>
-      </c>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="92"/>
+      <c r="A81" s="48"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="126"/>
+      <c r="D81" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="31"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="25"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="48"/>
+      <c r="B82" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="124"/>
+      <c r="D82" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="25"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="48"/>
-      <c r="B83" s="120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="23" t="s">
-        <v>159</v>
+      <c r="B83" s="126"/>
+      <c r="C83" s="126"/>
+      <c r="D83" s="45" t="s">
+        <v>144</v>
       </c>
       <c r="E83" s="31"/>
       <c r="F83" s="24"/>
@@ -7130,143 +7130,40 @@
       <c r="I83" s="24"/>
       <c r="J83" s="25"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
-      <c r="B84" s="122"/>
-      <c r="C84" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="E84" s="31"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="25"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
-      <c r="B85" s="122"/>
-      <c r="C85" s="120" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E85" s="31"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="25"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
-      <c r="B86" s="122"/>
-      <c r="C86" s="121"/>
-      <c r="D86" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="E86" s="31"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="25"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
-      <c r="B87" s="122"/>
-      <c r="C87" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="25"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
-      <c r="B88" s="121"/>
-      <c r="C88" s="121"/>
-      <c r="D88" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="25"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
-      <c r="B89" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89" s="120"/>
-      <c r="D89" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E89" s="31"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="25"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
-      <c r="B90" s="121"/>
-      <c r="C90" s="121"/>
-      <c r="D90" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="E90" s="31"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="25"/>
-    </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A65:B69"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B21:B47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="A72:B75"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="A45:B48"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A17:B20"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
@@ -7283,38 +7180,35 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="A52:B55"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A17:B20"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="A79:B82"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="E80:J80"/>
-    <mergeCell ref="E81:J81"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A58:B62"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B21:B40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="KaungYeeHein@gmail.com"/>
@@ -7327,9 +7221,9 @@
   </headerFooter>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="14" max="16383" man="1"/>
-    <brk id="50" max="16383" man="1"/>
-    <brk id="64" max="16383" man="1"/>
-    <brk id="78" max="16383" man="1"/>
+    <brk id="43" max="16383" man="1"/>
+    <brk id="57" max="16383" man="1"/>
+    <brk id="71" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>